--- a/user-data/govtspend-USD/govtspend-USD.xlsx
+++ b/user-data/govtspend-USD/govtspend-USD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="417">
   <si>
     <t>id</t>
   </si>
@@ -1243,9 +1243,6 @@
     <t>Source: Development Initiatives, based on IMF World Economic Outlook, OECD DAC, World Bank</t>
   </si>
   <si>
-    <t>Source-link: NA</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -1631,42 +1628,42 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="15">
@@ -1682,11 +1679,6 @@
     <row r="17">
       <c r="A17" t="s">
         <v>416</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>417</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/govtspend-USD/govtspend-USD.xlsx
+++ b/user-data/govtspend-USD/govtspend-USD.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -1252,7 +1252,7 @@
     <t>Calculated from IMF WEO data on government spending as a proportion of GDP. Receipts of general budget support ODA and disbursements on public debt are subtracted from total government spending to avoid double counting when comparing with international resource flows.</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>

--- a/user-data/govtspend-USD/govtspend-USD.xlsx
+++ b/user-data/govtspend-USD/govtspend-USD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="418">
   <si>
     <t>id</t>
   </si>
@@ -1258,7 +1258,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1681,6 +1684,11 @@
         <v>416</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>417</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/govtspend-USD/govtspend-USD.xlsx
+++ b/user-data/govtspend-USD/govtspend-USD.xlsx
@@ -55,7 +55,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AR</t>
@@ -151,7 +151,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -188,12 +188,6 @@
   </si>
   <si>
     <t>Burundi</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>CÃ´te d'Ivoire</t>
   </si>
   <si>
     <t>KH</t>
@@ -266,6 +260,12 @@
   </si>
   <si>
     <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
   </si>
   <si>
     <t>HR</t>
@@ -871,7 +871,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -889,7 +889,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SA</t>
@@ -1057,7 +1057,7 @@
     <t>TT</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
+    <t>Trinidad &amp; Tobago</t>
   </si>
   <si>
     <t>TN</t>
@@ -1096,16 +1096,16 @@
     <t>Uganda</t>
   </si>
   <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
     <t>UA</t>
   </si>
   <si>
     <t>Ukraine</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
   </si>
   <si>
     <t>UY</t>
@@ -1267,7 +1267,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -10281,7 +10281,9 @@
       <c r="C629" t="n">
         <v>1996</v>
       </c>
-      <c r="D629"/>
+      <c r="D629" t="n">
+        <v>659.63</v>
+      </c>
     </row>
     <row r="630">
       <c r="A630" t="s">
@@ -10294,7 +10296,7 @@
         <v>1997</v>
       </c>
       <c r="D630" t="n">
-        <v>4589.46</v>
+        <v>552.25</v>
       </c>
     </row>
     <row r="631">
@@ -10308,7 +10310,7 @@
         <v>1998</v>
       </c>
       <c r="D631" t="n">
-        <v>4595.98</v>
+        <v>626.1</v>
       </c>
     </row>
     <row r="632">
@@ -10322,7 +10324,7 @@
         <v>1999</v>
       </c>
       <c r="D632" t="n">
-        <v>4365.6</v>
+        <v>721.58</v>
       </c>
     </row>
     <row r="633">
@@ -10336,7 +10338,7 @@
         <v>2000</v>
       </c>
       <c r="D633" t="n">
-        <v>3878.25</v>
+        <v>855.27</v>
       </c>
     </row>
     <row r="634">
@@ -10350,7 +10352,7 @@
         <v>2001</v>
       </c>
       <c r="D634" t="n">
-        <v>3554.7</v>
+        <v>930.37</v>
       </c>
     </row>
     <row r="635">
@@ -10364,7 +10366,7 @@
         <v>2002</v>
       </c>
       <c r="D635" t="n">
-        <v>3682.93</v>
+        <v>1050.87</v>
       </c>
     </row>
     <row r="636">
@@ -10378,7 +10380,7 @@
         <v>2003</v>
       </c>
       <c r="D636" t="n">
-        <v>4001.21</v>
+        <v>1078.65</v>
       </c>
     </row>
     <row r="637">
@@ -10392,7 +10394,7 @@
         <v>2004</v>
       </c>
       <c r="D637" t="n">
-        <v>4157.52</v>
+        <v>1082.04</v>
       </c>
     </row>
     <row r="638">
@@ -10406,7 +10408,7 @@
         <v>2005</v>
       </c>
       <c r="D638" t="n">
-        <v>4163.62</v>
+        <v>1095.63</v>
       </c>
     </row>
     <row r="639">
@@ -10420,7 +10422,7 @@
         <v>2006</v>
       </c>
       <c r="D639" t="n">
-        <v>4356.46</v>
+        <v>1274.66</v>
       </c>
     </row>
     <row r="640">
@@ -10434,7 +10436,7 @@
         <v>2007</v>
       </c>
       <c r="D640" t="n">
-        <v>4385.08</v>
+        <v>1549.64</v>
       </c>
     </row>
     <row r="641">
@@ -10448,7 +10450,7 @@
         <v>2008</v>
       </c>
       <c r="D641" t="n">
-        <v>4660.72</v>
+        <v>1803.83</v>
       </c>
     </row>
     <row r="642">
@@ -10462,7 +10464,7 @@
         <v>2009</v>
       </c>
       <c r="D642" t="n">
-        <v>4477.43</v>
+        <v>2319.72</v>
       </c>
     </row>
     <row r="643">
@@ -10476,7 +10478,7 @@
         <v>2010</v>
       </c>
       <c r="D643" t="n">
-        <v>5058.36</v>
+        <v>2442.68</v>
       </c>
     </row>
     <row r="644">
@@ -10490,7 +10492,7 @@
         <v>2011</v>
       </c>
       <c r="D644" t="n">
-        <v>5091.9</v>
+        <v>2582.47</v>
       </c>
     </row>
     <row r="645">
@@ -10504,7 +10506,7 @@
         <v>2012</v>
       </c>
       <c r="D645" t="n">
-        <v>5711.2</v>
+        <v>2922.71</v>
       </c>
     </row>
     <row r="646">
@@ -10589,9 +10591,7 @@
       <c r="C652" t="n">
         <v>1996</v>
       </c>
-      <c r="D652" t="n">
-        <v>659.63</v>
-      </c>
+      <c r="D652"/>
     </row>
     <row r="653">
       <c r="A653" t="s">
@@ -10603,9 +10603,7 @@
       <c r="C653" t="n">
         <v>1997</v>
       </c>
-      <c r="D653" t="n">
-        <v>552.25</v>
-      </c>
+      <c r="D653"/>
     </row>
     <row r="654">
       <c r="A654" t="s">
@@ -10617,9 +10615,7 @@
       <c r="C654" t="n">
         <v>1998</v>
       </c>
-      <c r="D654" t="n">
-        <v>626.1</v>
-      </c>
+      <c r="D654"/>
     </row>
     <row r="655">
       <c r="A655" t="s">
@@ -10631,9 +10627,7 @@
       <c r="C655" t="n">
         <v>1999</v>
       </c>
-      <c r="D655" t="n">
-        <v>721.58</v>
-      </c>
+      <c r="D655"/>
     </row>
     <row r="656">
       <c r="A656" t="s">
@@ -10646,7 +10640,7 @@
         <v>2000</v>
       </c>
       <c r="D656" t="n">
-        <v>855.27</v>
+        <v>2770.84</v>
       </c>
     </row>
     <row r="657">
@@ -10660,7 +10654,7 @@
         <v>2001</v>
       </c>
       <c r="D657" t="n">
-        <v>930.37</v>
+        <v>2950.02</v>
       </c>
     </row>
     <row r="658">
@@ -10674,7 +10668,7 @@
         <v>2002</v>
       </c>
       <c r="D658" t="n">
-        <v>1050.87</v>
+        <v>2777.5</v>
       </c>
     </row>
     <row r="659">
@@ -10688,7 +10682,7 @@
         <v>2003</v>
       </c>
       <c r="D659" t="n">
-        <v>1078.65</v>
+        <v>2874.01</v>
       </c>
     </row>
     <row r="660">
@@ -10702,7 +10696,7 @@
         <v>2004</v>
       </c>
       <c r="D660" t="n">
-        <v>1082.04</v>
+        <v>3119.83</v>
       </c>
     </row>
     <row r="661">
@@ -10716,7 +10710,7 @@
         <v>2005</v>
       </c>
       <c r="D661" t="n">
-        <v>1095.63</v>
+        <v>2917.91</v>
       </c>
     </row>
     <row r="662">
@@ -10730,7 +10724,7 @@
         <v>2006</v>
       </c>
       <c r="D662" t="n">
-        <v>1274.66</v>
+        <v>2872.09</v>
       </c>
     </row>
     <row r="663">
@@ -10744,7 +10738,7 @@
         <v>2007</v>
       </c>
       <c r="D663" t="n">
-        <v>1549.64</v>
+        <v>3320.71</v>
       </c>
     </row>
     <row r="664">
@@ -10758,7 +10752,7 @@
         <v>2008</v>
       </c>
       <c r="D664" t="n">
-        <v>1803.83</v>
+        <v>3965.15</v>
       </c>
     </row>
     <row r="665">
@@ -10772,7 +10766,7 @@
         <v>2009</v>
       </c>
       <c r="D665" t="n">
-        <v>2319.72</v>
+        <v>4001</v>
       </c>
     </row>
     <row r="666">
@@ -10786,7 +10780,7 @@
         <v>2010</v>
       </c>
       <c r="D666" t="n">
-        <v>2442.68</v>
+        <v>4298.11</v>
       </c>
     </row>
     <row r="667">
@@ -10800,7 +10794,7 @@
         <v>2011</v>
       </c>
       <c r="D667" t="n">
-        <v>2582.47</v>
+        <v>5189.35</v>
       </c>
     </row>
     <row r="668">
@@ -10814,7 +10808,7 @@
         <v>2012</v>
       </c>
       <c r="D668" t="n">
-        <v>2922.71</v>
+        <v>5175.38</v>
       </c>
     </row>
     <row r="669">
@@ -10827,7 +10821,9 @@
       <c r="C669" t="n">
         <v>1990</v>
       </c>
-      <c r="D669"/>
+      <c r="D669" t="n">
+        <v>576307.44</v>
+      </c>
     </row>
     <row r="670">
       <c r="A670" t="s">
@@ -10839,7 +10835,9 @@
       <c r="C670" t="n">
         <v>1991</v>
       </c>
-      <c r="D670"/>
+      <c r="D670" t="n">
+        <v>608442.83</v>
+      </c>
     </row>
     <row r="671">
       <c r="A671" t="s">
@@ -10851,7 +10849,9 @@
       <c r="C671" t="n">
         <v>1992</v>
       </c>
-      <c r="D671"/>
+      <c r="D671" t="n">
+        <v>626511.1</v>
+      </c>
     </row>
     <row r="672">
       <c r="A672" t="s">
@@ -10863,7 +10863,9 @@
       <c r="C672" t="n">
         <v>1993</v>
       </c>
-      <c r="D672"/>
+      <c r="D672" t="n">
+        <v>627626.59</v>
+      </c>
     </row>
     <row r="673">
       <c r="A673" t="s">
@@ -10875,7 +10877,9 @@
       <c r="C673" t="n">
         <v>1994</v>
       </c>
-      <c r="D673"/>
+      <c r="D673" t="n">
+        <v>626719.12</v>
+      </c>
     </row>
     <row r="674">
       <c r="A674" t="s">
@@ -10887,7 +10891,9 @@
       <c r="C674" t="n">
         <v>1995</v>
       </c>
-      <c r="D674"/>
+      <c r="D674" t="n">
+        <v>628161.6</v>
+      </c>
     </row>
     <row r="675">
       <c r="A675" t="s">
@@ -10899,7 +10905,9 @@
       <c r="C675" t="n">
         <v>1996</v>
       </c>
-      <c r="D675"/>
+      <c r="D675" t="n">
+        <v>605666.09</v>
+      </c>
     </row>
     <row r="676">
       <c r="A676" t="s">
@@ -10911,7 +10919,9 @@
       <c r="C676" t="n">
         <v>1997</v>
       </c>
-      <c r="D676"/>
+      <c r="D676" t="n">
+        <v>589483.58</v>
+      </c>
     </row>
     <row r="677">
       <c r="A677" t="s">
@@ -10923,7 +10933,9 @@
       <c r="C677" t="n">
         <v>1998</v>
       </c>
-      <c r="D677"/>
+      <c r="D677" t="n">
+        <v>620258.27</v>
+      </c>
     </row>
     <row r="678">
       <c r="A678" t="s">
@@ -10935,7 +10947,9 @@
       <c r="C678" t="n">
         <v>1999</v>
       </c>
-      <c r="D678"/>
+      <c r="D678" t="n">
+        <v>632939.02</v>
+      </c>
     </row>
     <row r="679">
       <c r="A679" t="s">
@@ -10948,7 +10962,7 @@
         <v>2000</v>
       </c>
       <c r="D679" t="n">
-        <v>2770.84</v>
+        <v>631836.63</v>
       </c>
     </row>
     <row r="680">
@@ -10962,7 +10976,7 @@
         <v>2001</v>
       </c>
       <c r="D680" t="n">
-        <v>2950.02</v>
+        <v>653356.74</v>
       </c>
     </row>
     <row r="681">
@@ -10976,7 +10990,7 @@
         <v>2002</v>
       </c>
       <c r="D681" t="n">
-        <v>2777.5</v>
+        <v>656150.26</v>
       </c>
     </row>
     <row r="682">
@@ -10990,7 +11004,7 @@
         <v>2003</v>
       </c>
       <c r="D682" t="n">
-        <v>2874.01</v>
+        <v>672402.85</v>
       </c>
     </row>
     <row r="683">
@@ -11004,7 +11018,7 @@
         <v>2004</v>
       </c>
       <c r="D683" t="n">
-        <v>3119.83</v>
+        <v>670795.27</v>
       </c>
     </row>
     <row r="684">
@@ -11018,7 +11032,7 @@
         <v>2005</v>
       </c>
       <c r="D684" t="n">
-        <v>2917.91</v>
+        <v>698046.99</v>
       </c>
     </row>
     <row r="685">
@@ -11032,7 +11046,7 @@
         <v>2006</v>
       </c>
       <c r="D685" t="n">
-        <v>2872.09</v>
+        <v>710241.23</v>
       </c>
     </row>
     <row r="686">
@@ -11046,7 +11060,7 @@
         <v>2007</v>
       </c>
       <c r="D686" t="n">
-        <v>3320.71</v>
+        <v>723026.61</v>
       </c>
     </row>
     <row r="687">
@@ -11060,7 +11074,7 @@
         <v>2008</v>
       </c>
       <c r="D687" t="n">
-        <v>3965.15</v>
+        <v>742272.7</v>
       </c>
     </row>
     <row r="688">
@@ -11074,7 +11088,7 @@
         <v>2009</v>
       </c>
       <c r="D688" t="n">
-        <v>4001</v>
+        <v>798252.59</v>
       </c>
     </row>
     <row r="689">
@@ -11088,7 +11102,7 @@
         <v>2010</v>
       </c>
       <c r="D689" t="n">
-        <v>4298.11</v>
+        <v>826460.72</v>
       </c>
     </row>
     <row r="690">
@@ -11102,7 +11116,7 @@
         <v>2011</v>
       </c>
       <c r="D690" t="n">
-        <v>5189.35</v>
+        <v>820759.68</v>
       </c>
     </row>
     <row r="691">
@@ -11116,7 +11130,7 @@
         <v>2012</v>
       </c>
       <c r="D691" t="n">
-        <v>5175.38</v>
+        <v>816717.72</v>
       </c>
     </row>
     <row r="692">
@@ -11129,9 +11143,7 @@
       <c r="C692" t="n">
         <v>1990</v>
       </c>
-      <c r="D692" t="n">
-        <v>576307.44</v>
-      </c>
+      <c r="D692"/>
     </row>
     <row r="693">
       <c r="A693" t="s">
@@ -11143,9 +11155,7 @@
       <c r="C693" t="n">
         <v>1991</v>
       </c>
-      <c r="D693" t="n">
-        <v>608442.83</v>
-      </c>
+      <c r="D693"/>
     </row>
     <row r="694">
       <c r="A694" t="s">
@@ -11157,9 +11167,7 @@
       <c r="C694" t="n">
         <v>1992</v>
       </c>
-      <c r="D694" t="n">
-        <v>626511.1</v>
-      </c>
+      <c r="D694"/>
     </row>
     <row r="695">
       <c r="A695" t="s">
@@ -11171,9 +11179,7 @@
       <c r="C695" t="n">
         <v>1993</v>
       </c>
-      <c r="D695" t="n">
-        <v>627626.59</v>
-      </c>
+      <c r="D695"/>
     </row>
     <row r="696">
       <c r="A696" t="s">
@@ -11185,9 +11191,7 @@
       <c r="C696" t="n">
         <v>1994</v>
       </c>
-      <c r="D696" t="n">
-        <v>626719.12</v>
-      </c>
+      <c r="D696"/>
     </row>
     <row r="697">
       <c r="A697" t="s">
@@ -11199,9 +11203,7 @@
       <c r="C697" t="n">
         <v>1995</v>
       </c>
-      <c r="D697" t="n">
-        <v>628161.6</v>
-      </c>
+      <c r="D697"/>
     </row>
     <row r="698">
       <c r="A698" t="s">
@@ -11213,9 +11215,7 @@
       <c r="C698" t="n">
         <v>1996</v>
       </c>
-      <c r="D698" t="n">
-        <v>605666.09</v>
-      </c>
+      <c r="D698"/>
     </row>
     <row r="699">
       <c r="A699" t="s">
@@ -11227,9 +11227,7 @@
       <c r="C699" t="n">
         <v>1997</v>
       </c>
-      <c r="D699" t="n">
-        <v>589483.58</v>
-      </c>
+      <c r="D699"/>
     </row>
     <row r="700">
       <c r="A700" t="s">
@@ -11241,9 +11239,7 @@
       <c r="C700" t="n">
         <v>1998</v>
       </c>
-      <c r="D700" t="n">
-        <v>620258.27</v>
-      </c>
+      <c r="D700"/>
     </row>
     <row r="701">
       <c r="A701" t="s">
@@ -11255,9 +11251,7 @@
       <c r="C701" t="n">
         <v>1999</v>
       </c>
-      <c r="D701" t="n">
-        <v>632939.02</v>
-      </c>
+      <c r="D701"/>
     </row>
     <row r="702">
       <c r="A702" t="s">
@@ -11269,9 +11263,7 @@
       <c r="C702" t="n">
         <v>2000</v>
       </c>
-      <c r="D702" t="n">
-        <v>631836.63</v>
-      </c>
+      <c r="D702"/>
     </row>
     <row r="703">
       <c r="A703" t="s">
@@ -11283,9 +11275,7 @@
       <c r="C703" t="n">
         <v>2001</v>
       </c>
-      <c r="D703" t="n">
-        <v>653356.74</v>
-      </c>
+      <c r="D703"/>
     </row>
     <row r="704">
       <c r="A704" t="s">
@@ -11298,7 +11288,7 @@
         <v>2002</v>
       </c>
       <c r="D704" t="n">
-        <v>656150.26</v>
+        <v>401.76</v>
       </c>
     </row>
     <row r="705">
@@ -11312,7 +11302,7 @@
         <v>2003</v>
       </c>
       <c r="D705" t="n">
-        <v>672402.85</v>
+        <v>332.98</v>
       </c>
     </row>
     <row r="706">
@@ -11326,7 +11316,7 @@
         <v>2004</v>
       </c>
       <c r="D706" t="n">
-        <v>670795.27</v>
+        <v>393.93</v>
       </c>
     </row>
     <row r="707">
@@ -11340,7 +11330,7 @@
         <v>2005</v>
       </c>
       <c r="D707" t="n">
-        <v>698046.99</v>
+        <v>432.22</v>
       </c>
     </row>
     <row r="708">
@@ -11354,7 +11344,7 @@
         <v>2006</v>
       </c>
       <c r="D708" t="n">
-        <v>710241.23</v>
+        <v>485</v>
       </c>
     </row>
     <row r="709">
@@ -11368,7 +11358,7 @@
         <v>2007</v>
       </c>
       <c r="D709" t="n">
-        <v>723026.61</v>
+        <v>451.7</v>
       </c>
     </row>
     <row r="710">
@@ -11382,7 +11372,7 @@
         <v>2008</v>
       </c>
       <c r="D710" t="n">
-        <v>742272.7</v>
+        <v>491.5</v>
       </c>
     </row>
     <row r="711">
@@ -11396,7 +11386,7 @@
         <v>2009</v>
       </c>
       <c r="D711" t="n">
-        <v>798252.59</v>
+        <v>536.46</v>
       </c>
     </row>
     <row r="712">
@@ -11410,7 +11400,7 @@
         <v>2010</v>
       </c>
       <c r="D712" t="n">
-        <v>826460.72</v>
+        <v>626.75</v>
       </c>
     </row>
     <row r="713">
@@ -11424,7 +11414,7 @@
         <v>2011</v>
       </c>
       <c r="D713" t="n">
-        <v>820759.68</v>
+        <v>582.69</v>
       </c>
     </row>
     <row r="714">
@@ -11438,7 +11428,7 @@
         <v>2012</v>
       </c>
       <c r="D714" t="n">
-        <v>816717.72</v>
+        <v>582.4</v>
       </c>
     </row>
     <row r="715">
@@ -11451,7 +11441,9 @@
       <c r="C715" t="n">
         <v>1990</v>
       </c>
-      <c r="D715"/>
+      <c r="D715" t="n">
+        <v>346.79</v>
+      </c>
     </row>
     <row r="716">
       <c r="A716" t="s">
@@ -11463,7 +11455,9 @@
       <c r="C716" t="n">
         <v>1991</v>
       </c>
-      <c r="D716"/>
+      <c r="D716" t="n">
+        <v>341.85</v>
+      </c>
     </row>
     <row r="717">
       <c r="A717" t="s">
@@ -11475,7 +11469,9 @@
       <c r="C717" t="n">
         <v>1992</v>
       </c>
-      <c r="D717"/>
+      <c r="D717" t="n">
+        <v>303.97</v>
+      </c>
     </row>
     <row r="718">
       <c r="A718" t="s">
@@ -11487,7 +11483,9 @@
       <c r="C718" t="n">
         <v>1993</v>
       </c>
-      <c r="D718"/>
+      <c r="D718" t="n">
+        <v>162.15</v>
+      </c>
     </row>
     <row r="719">
       <c r="A719" t="s">
@@ -11499,7 +11497,9 @@
       <c r="C719" t="n">
         <v>1994</v>
       </c>
-      <c r="D719"/>
+      <c r="D719" t="n">
+        <v>342.27</v>
+      </c>
     </row>
     <row r="720">
       <c r="A720" t="s">
@@ -11511,7 +11511,9 @@
       <c r="C720" t="n">
         <v>1995</v>
       </c>
-      <c r="D720"/>
+      <c r="D720" t="n">
+        <v>281.75</v>
+      </c>
     </row>
     <row r="721">
       <c r="A721" t="s">
@@ -11523,7 +11525,9 @@
       <c r="C721" t="n">
         <v>1996</v>
       </c>
-      <c r="D721"/>
+      <c r="D721" t="n">
+        <v>263.28</v>
+      </c>
     </row>
     <row r="722">
       <c r="A722" t="s">
@@ -11535,7 +11539,9 @@
       <c r="C722" t="n">
         <v>1997</v>
       </c>
-      <c r="D722"/>
+      <c r="D722" t="n">
+        <v>211.43</v>
+      </c>
     </row>
     <row r="723">
       <c r="A723" t="s">
@@ -11547,7 +11553,9 @@
       <c r="C723" t="n">
         <v>1998</v>
       </c>
-      <c r="D723"/>
+      <c r="D723" t="n">
+        <v>295.91</v>
+      </c>
     </row>
     <row r="724">
       <c r="A724" t="s">
@@ -11559,7 +11567,9 @@
       <c r="C724" t="n">
         <v>1999</v>
       </c>
-      <c r="D724"/>
+      <c r="D724" t="n">
+        <v>295.15</v>
+      </c>
     </row>
     <row r="725">
       <c r="A725" t="s">
@@ -11571,7 +11581,9 @@
       <c r="C725" t="n">
         <v>2000</v>
       </c>
-      <c r="D725"/>
+      <c r="D725" t="n">
+        <v>293.83</v>
+      </c>
     </row>
     <row r="726">
       <c r="A726" t="s">
@@ -11583,7 +11595,9 @@
       <c r="C726" t="n">
         <v>2001</v>
       </c>
-      <c r="D726"/>
+      <c r="D726" t="n">
+        <v>248.49</v>
+      </c>
     </row>
     <row r="727">
       <c r="A727" t="s">
@@ -11596,7 +11610,7 @@
         <v>2002</v>
       </c>
       <c r="D727" t="n">
-        <v>401.76</v>
+        <v>297.73</v>
       </c>
     </row>
     <row r="728">
@@ -11610,7 +11624,7 @@
         <v>2003</v>
       </c>
       <c r="D728" t="n">
-        <v>332.98</v>
+        <v>214.49</v>
       </c>
     </row>
     <row r="729">
@@ -11624,7 +11638,7 @@
         <v>2004</v>
       </c>
       <c r="D729" t="n">
-        <v>393.93</v>
+        <v>207.22</v>
       </c>
     </row>
     <row r="730">
@@ -11638,7 +11652,7 @@
         <v>2005</v>
       </c>
       <c r="D730" t="n">
-        <v>432.22</v>
+        <v>284.48</v>
       </c>
     </row>
     <row r="731">
@@ -11652,7 +11666,7 @@
         <v>2006</v>
       </c>
       <c r="D731" t="n">
-        <v>485</v>
+        <v>244.06</v>
       </c>
     </row>
     <row r="732">
@@ -11666,7 +11680,7 @@
         <v>2007</v>
       </c>
       <c r="D732" t="n">
-        <v>451.7</v>
+        <v>190.6</v>
       </c>
     </row>
     <row r="733">
@@ -11680,7 +11694,7 @@
         <v>2008</v>
       </c>
       <c r="D733" t="n">
-        <v>491.5</v>
+        <v>281.73</v>
       </c>
     </row>
     <row r="734">
@@ -11694,7 +11708,7 @@
         <v>2009</v>
       </c>
       <c r="D734" t="n">
-        <v>536.46</v>
+        <v>250.66</v>
       </c>
     </row>
     <row r="735">
@@ -11708,7 +11722,7 @@
         <v>2010</v>
       </c>
       <c r="D735" t="n">
-        <v>626.75</v>
+        <v>337.79</v>
       </c>
     </row>
     <row r="736">
@@ -11722,7 +11736,7 @@
         <v>2011</v>
       </c>
       <c r="D736" t="n">
-        <v>582.69</v>
+        <v>327.6</v>
       </c>
     </row>
     <row r="737">
@@ -11736,7 +11750,7 @@
         <v>2012</v>
       </c>
       <c r="D737" t="n">
-        <v>582.4</v>
+        <v>325.08</v>
       </c>
     </row>
     <row r="738">
@@ -11749,9 +11763,7 @@
       <c r="C738" t="n">
         <v>1990</v>
       </c>
-      <c r="D738" t="n">
-        <v>346.79</v>
-      </c>
+      <c r="D738"/>
     </row>
     <row r="739">
       <c r="A739" t="s">
@@ -11763,9 +11775,7 @@
       <c r="C739" t="n">
         <v>1991</v>
       </c>
-      <c r="D739" t="n">
-        <v>341.85</v>
-      </c>
+      <c r="D739"/>
     </row>
     <row r="740">
       <c r="A740" t="s">
@@ -11777,9 +11787,7 @@
       <c r="C740" t="n">
         <v>1992</v>
       </c>
-      <c r="D740" t="n">
-        <v>303.97</v>
-      </c>
+      <c r="D740"/>
     </row>
     <row r="741">
       <c r="A741" t="s">
@@ -11791,9 +11799,7 @@
       <c r="C741" t="n">
         <v>1993</v>
       </c>
-      <c r="D741" t="n">
-        <v>162.15</v>
-      </c>
+      <c r="D741"/>
     </row>
     <row r="742">
       <c r="A742" t="s">
@@ -11805,9 +11811,7 @@
       <c r="C742" t="n">
         <v>1994</v>
       </c>
-      <c r="D742" t="n">
-        <v>342.27</v>
-      </c>
+      <c r="D742"/>
     </row>
     <row r="743">
       <c r="A743" t="s">
@@ -11820,7 +11824,7 @@
         <v>1995</v>
       </c>
       <c r="D743" t="n">
-        <v>281.75</v>
+        <v>654.04</v>
       </c>
     </row>
     <row r="744">
@@ -11834,7 +11838,7 @@
         <v>1996</v>
       </c>
       <c r="D744" t="n">
-        <v>263.28</v>
+        <v>651.12</v>
       </c>
     </row>
     <row r="745">
@@ -11848,7 +11852,7 @@
         <v>1997</v>
       </c>
       <c r="D745" t="n">
-        <v>211.43</v>
+        <v>688.86</v>
       </c>
     </row>
     <row r="746">
@@ -11862,7 +11866,7 @@
         <v>1998</v>
       </c>
       <c r="D746" t="n">
-        <v>295.91</v>
+        <v>622.6</v>
       </c>
     </row>
     <row r="747">
@@ -11876,7 +11880,7 @@
         <v>1999</v>
       </c>
       <c r="D747" t="n">
-        <v>295.15</v>
+        <v>785.51</v>
       </c>
     </row>
     <row r="748">
@@ -11890,7 +11894,7 @@
         <v>2000</v>
       </c>
       <c r="D748" t="n">
-        <v>293.83</v>
+        <v>847.94</v>
       </c>
     </row>
     <row r="749">
@@ -11904,7 +11908,7 @@
         <v>2001</v>
       </c>
       <c r="D749" t="n">
-        <v>248.49</v>
+        <v>808.58</v>
       </c>
     </row>
     <row r="750">
@@ -11918,7 +11922,7 @@
         <v>2002</v>
       </c>
       <c r="D750" t="n">
-        <v>297.73</v>
+        <v>936.75</v>
       </c>
     </row>
     <row r="751">
@@ -11932,7 +11936,7 @@
         <v>2003</v>
       </c>
       <c r="D751" t="n">
-        <v>214.49</v>
+        <v>1228.43</v>
       </c>
     </row>
     <row r="752">
@@ -11946,7 +11950,7 @@
         <v>2004</v>
       </c>
       <c r="D752" t="n">
-        <v>207.22</v>
+        <v>1096.8</v>
       </c>
     </row>
     <row r="753">
@@ -11960,7 +11964,7 @@
         <v>2005</v>
       </c>
       <c r="D753" t="n">
-        <v>284.48</v>
+        <v>1041.62</v>
       </c>
     </row>
     <row r="754">
@@ -11974,7 +11978,7 @@
         <v>2006</v>
       </c>
       <c r="D754" t="n">
-        <v>244.06</v>
+        <v>1293.91</v>
       </c>
     </row>
     <row r="755">
@@ -11988,7 +11992,7 @@
         <v>2007</v>
       </c>
       <c r="D755" t="n">
-        <v>190.6</v>
+        <v>1661.21</v>
       </c>
     </row>
     <row r="756">
@@ -12002,7 +12006,7 @@
         <v>2008</v>
       </c>
       <c r="D756" t="n">
-        <v>281.73</v>
+        <v>1886.05</v>
       </c>
     </row>
     <row r="757">
@@ -12016,7 +12020,7 @@
         <v>2009</v>
       </c>
       <c r="D757" t="n">
-        <v>250.66</v>
+        <v>2522.65</v>
       </c>
     </row>
     <row r="758">
@@ -12030,7 +12034,7 @@
         <v>2010</v>
       </c>
       <c r="D758" t="n">
-        <v>337.79</v>
+        <v>2888.28</v>
       </c>
     </row>
     <row r="759">
@@ -12044,7 +12048,7 @@
         <v>2011</v>
       </c>
       <c r="D759" t="n">
-        <v>327.6</v>
+        <v>2651.82</v>
       </c>
     </row>
     <row r="760">
@@ -12058,7 +12062,7 @@
         <v>2012</v>
       </c>
       <c r="D760" t="n">
-        <v>325.08</v>
+        <v>2963.43</v>
       </c>
     </row>
     <row r="761">
@@ -12071,7 +12075,9 @@
       <c r="C761" t="n">
         <v>1990</v>
       </c>
-      <c r="D761"/>
+      <c r="D761" t="n">
+        <v>18348.36</v>
+      </c>
     </row>
     <row r="762">
       <c r="A762" t="s">
@@ -12083,7 +12089,9 @@
       <c r="C762" t="n">
         <v>1991</v>
       </c>
-      <c r="D762"/>
+      <c r="D762" t="n">
+        <v>20105.6</v>
+      </c>
     </row>
     <row r="763">
       <c r="A763" t="s">
@@ -12095,7 +12103,9 @@
       <c r="C763" t="n">
         <v>1992</v>
       </c>
-      <c r="D763"/>
+      <c r="D763" t="n">
+        <v>22130.06</v>
+      </c>
     </row>
     <row r="764">
       <c r="A764" t="s">
@@ -12107,7 +12117,9 @@
       <c r="C764" t="n">
         <v>1993</v>
       </c>
-      <c r="D764"/>
+      <c r="D764" t="n">
+        <v>24025.44</v>
+      </c>
     </row>
     <row r="765">
       <c r="A765" t="s">
@@ -12119,7 +12131,9 @@
       <c r="C765" t="n">
         <v>1994</v>
       </c>
-      <c r="D765"/>
+      <c r="D765" t="n">
+        <v>24793</v>
+      </c>
     </row>
     <row r="766">
       <c r="A766" t="s">
@@ -12132,7 +12146,7 @@
         <v>1995</v>
       </c>
       <c r="D766" t="n">
-        <v>654.04</v>
+        <v>25798.83</v>
       </c>
     </row>
     <row r="767">
@@ -12146,7 +12160,7 @@
         <v>1996</v>
       </c>
       <c r="D767" t="n">
-        <v>651.12</v>
+        <v>29377.49</v>
       </c>
     </row>
     <row r="768">
@@ -12160,7 +12174,7 @@
         <v>1997</v>
       </c>
       <c r="D768" t="n">
-        <v>688.86</v>
+        <v>31336.11</v>
       </c>
     </row>
     <row r="769">
@@ -12174,7 +12188,7 @@
         <v>1998</v>
       </c>
       <c r="D769" t="n">
-        <v>622.6</v>
+        <v>34179.17</v>
       </c>
     </row>
     <row r="770">
@@ -12188,7 +12202,7 @@
         <v>1999</v>
       </c>
       <c r="D770" t="n">
-        <v>785.51</v>
+        <v>36614.24</v>
       </c>
     </row>
     <row r="771">
@@ -12202,7 +12216,7 @@
         <v>2000</v>
       </c>
       <c r="D771" t="n">
-        <v>847.94</v>
+        <v>36879.24</v>
       </c>
     </row>
     <row r="772">
@@ -12216,7 +12230,7 @@
         <v>2001</v>
       </c>
       <c r="D772" t="n">
-        <v>808.58</v>
+        <v>38623.3</v>
       </c>
     </row>
     <row r="773">
@@ -12230,7 +12244,7 @@
         <v>2002</v>
       </c>
       <c r="D773" t="n">
-        <v>936.75</v>
+        <v>39502.02</v>
       </c>
     </row>
     <row r="774">
@@ -12244,7 +12258,7 @@
         <v>2003</v>
       </c>
       <c r="D774" t="n">
-        <v>1228.43</v>
+        <v>39183.9</v>
       </c>
     </row>
     <row r="775">
@@ -12258,7 +12272,7 @@
         <v>2004</v>
       </c>
       <c r="D775" t="n">
-        <v>1096.8</v>
+        <v>38984.2</v>
       </c>
     </row>
     <row r="776">
@@ -12272,7 +12286,7 @@
         <v>2005</v>
       </c>
       <c r="D776" t="n">
-        <v>1041.62</v>
+        <v>40149.7</v>
       </c>
     </row>
     <row r="777">
@@ -12286,7 +12300,7 @@
         <v>2006</v>
       </c>
       <c r="D777" t="n">
-        <v>1293.91</v>
+        <v>39305.41</v>
       </c>
     </row>
     <row r="778">
@@ -12300,7 +12314,7 @@
         <v>2007</v>
       </c>
       <c r="D778" t="n">
-        <v>1661.21</v>
+        <v>42797.64</v>
       </c>
     </row>
     <row r="779">
@@ -12314,7 +12328,7 @@
         <v>2008</v>
       </c>
       <c r="D779" t="n">
-        <v>1886.05</v>
+        <v>49497.33</v>
       </c>
     </row>
     <row r="780">
@@ -12328,7 +12342,7 @@
         <v>2009</v>
       </c>
       <c r="D780" t="n">
-        <v>2522.65</v>
+        <v>55825.7</v>
       </c>
     </row>
     <row r="781">
@@ -12342,7 +12356,7 @@
         <v>2010</v>
       </c>
       <c r="D781" t="n">
-        <v>2888.28</v>
+        <v>57075.08</v>
       </c>
     </row>
     <row r="782">
@@ -12356,7 +12370,7 @@
         <v>2011</v>
       </c>
       <c r="D782" t="n">
-        <v>2651.82</v>
+        <v>58692.15</v>
       </c>
     </row>
     <row r="783">
@@ -12370,7 +12384,7 @@
         <v>2012</v>
       </c>
       <c r="D783" t="n">
-        <v>2963.43</v>
+        <v>63179.6</v>
       </c>
     </row>
     <row r="784">
@@ -12384,7 +12398,7 @@
         <v>1990</v>
       </c>
       <c r="D784" t="n">
-        <v>18348.36</v>
+        <v>200785.54</v>
       </c>
     </row>
     <row r="785">
@@ -12398,7 +12412,7 @@
         <v>1991</v>
       </c>
       <c r="D785" t="n">
-        <v>20105.6</v>
+        <v>199146.38</v>
       </c>
     </row>
     <row r="786">
@@ -12412,7 +12426,7 @@
         <v>1992</v>
       </c>
       <c r="D786" t="n">
-        <v>22130.06</v>
+        <v>201261.54</v>
       </c>
     </row>
     <row r="787">
@@ -12426,7 +12440,7 @@
         <v>1993</v>
       </c>
       <c r="D787" t="n">
-        <v>24025.44</v>
+        <v>210146.48</v>
       </c>
     </row>
     <row r="788">
@@ -12440,7 +12454,7 @@
         <v>1994</v>
       </c>
       <c r="D788" t="n">
-        <v>24793</v>
+        <v>218471.07</v>
       </c>
     </row>
     <row r="789">
@@ -12454,7 +12468,7 @@
         <v>1995</v>
       </c>
       <c r="D789" t="n">
-        <v>25798.83</v>
+        <v>217190.65</v>
       </c>
     </row>
     <row r="790">
@@ -12468,7 +12482,7 @@
         <v>1996</v>
       </c>
       <c r="D790" t="n">
-        <v>29377.49</v>
+        <v>230971.21</v>
       </c>
     </row>
     <row r="791">
@@ -12482,7 +12496,7 @@
         <v>1997</v>
       </c>
       <c r="D791" t="n">
-        <v>31336.11</v>
+        <v>270004.54</v>
       </c>
     </row>
     <row r="792">
@@ -12496,7 +12510,7 @@
         <v>1998</v>
       </c>
       <c r="D792" t="n">
-        <v>34179.17</v>
+        <v>329865.39</v>
       </c>
     </row>
     <row r="793">
@@ -12510,7 +12524,7 @@
         <v>1999</v>
       </c>
       <c r="D793" t="n">
-        <v>36614.24</v>
+        <v>399590.54</v>
       </c>
     </row>
     <row r="794">
@@ -12524,7 +12538,7 @@
         <v>2000</v>
       </c>
       <c r="D794" t="n">
-        <v>36879.24</v>
+        <v>440120.6</v>
       </c>
     </row>
     <row r="795">
@@ -12538,7 +12552,7 @@
         <v>2001</v>
       </c>
       <c r="D795" t="n">
-        <v>38623.3</v>
+        <v>500636.9</v>
       </c>
     </row>
     <row r="796">
@@ -12552,7 +12566,7 @@
         <v>2002</v>
       </c>
       <c r="D796" t="n">
-        <v>39502.02</v>
+        <v>575683.55</v>
       </c>
     </row>
     <row r="797">
@@ -12566,7 +12580,7 @@
         <v>2003</v>
       </c>
       <c r="D797" t="n">
-        <v>39183.9</v>
+        <v>624135.79</v>
       </c>
     </row>
     <row r="798">
@@ -12580,7 +12594,7 @@
         <v>2004</v>
       </c>
       <c r="D798" t="n">
-        <v>38984.2</v>
+        <v>669869.02</v>
       </c>
     </row>
     <row r="799">
@@ -12594,7 +12608,7 @@
         <v>2005</v>
       </c>
       <c r="D799" t="n">
-        <v>40149.7</v>
+        <v>765036.69</v>
       </c>
     </row>
     <row r="800">
@@ -12608,7 +12622,7 @@
         <v>2006</v>
       </c>
       <c r="D800" t="n">
-        <v>39305.41</v>
+        <v>875964.3</v>
       </c>
     </row>
     <row r="801">
@@ -12622,7 +12636,7 @@
         <v>2007</v>
       </c>
       <c r="D801" t="n">
-        <v>42797.64</v>
+        <v>999330.85</v>
       </c>
     </row>
     <row r="802">
@@ -12636,7 +12650,7 @@
         <v>2008</v>
       </c>
       <c r="D802" t="n">
-        <v>49497.33</v>
+        <v>1182414.52</v>
       </c>
     </row>
     <row r="803">
@@ -12650,7 +12664,7 @@
         <v>2009</v>
       </c>
       <c r="D803" t="n">
-        <v>55825.7</v>
+        <v>1472214.95</v>
       </c>
     </row>
     <row r="804">
@@ -12664,7 +12678,7 @@
         <v>2010</v>
       </c>
       <c r="D804" t="n">
-        <v>57075.08</v>
+        <v>1596992.46</v>
       </c>
     </row>
     <row r="805">
@@ -12678,7 +12692,7 @@
         <v>2011</v>
       </c>
       <c r="D805" t="n">
-        <v>58692.15</v>
+        <v>1826084.3</v>
       </c>
     </row>
     <row r="806">
@@ -12692,7 +12706,7 @@
         <v>2012</v>
       </c>
       <c r="D806" t="n">
-        <v>63179.6</v>
+        <v>2043849.07</v>
       </c>
     </row>
     <row r="807">
@@ -12706,7 +12720,7 @@
         <v>1990</v>
       </c>
       <c r="D807" t="n">
-        <v>200785.54</v>
+        <v>29840.47</v>
       </c>
     </row>
     <row r="808">
@@ -12720,7 +12734,7 @@
         <v>1991</v>
       </c>
       <c r="D808" t="n">
-        <v>199146.38</v>
+        <v>30974.59</v>
       </c>
     </row>
     <row r="809">
@@ -12734,7 +12748,7 @@
         <v>1992</v>
       </c>
       <c r="D809" t="n">
-        <v>201261.54</v>
+        <v>33631.94</v>
       </c>
     </row>
     <row r="810">
@@ -12748,7 +12762,7 @@
         <v>1993</v>
       </c>
       <c r="D810" t="n">
-        <v>210146.48</v>
+        <v>38632.1</v>
       </c>
     </row>
     <row r="811">
@@ -12762,7 +12776,7 @@
         <v>1994</v>
       </c>
       <c r="D811" t="n">
-        <v>218471.07</v>
+        <v>41777.61</v>
       </c>
     </row>
     <row r="812">
@@ -12776,7 +12790,7 @@
         <v>1995</v>
       </c>
       <c r="D812" t="n">
-        <v>217190.65</v>
+        <v>47419.45</v>
       </c>
     </row>
     <row r="813">
@@ -12790,7 +12804,7 @@
         <v>1996</v>
       </c>
       <c r="D813" t="n">
-        <v>230971.21</v>
+        <v>54658.28</v>
       </c>
     </row>
     <row r="814">
@@ -12804,7 +12818,7 @@
         <v>1997</v>
       </c>
       <c r="D814" t="n">
-        <v>270004.54</v>
+        <v>59030.93</v>
       </c>
     </row>
     <row r="815">
@@ -12818,7 +12832,7 @@
         <v>1998</v>
       </c>
       <c r="D815" t="n">
-        <v>329865.39</v>
+        <v>59740.83</v>
       </c>
     </row>
     <row r="816">
@@ -12832,7 +12846,7 @@
         <v>1999</v>
       </c>
       <c r="D816" t="n">
-        <v>399590.54</v>
+        <v>61396.27</v>
       </c>
     </row>
     <row r="817">
@@ -12846,7 +12860,7 @@
         <v>2000</v>
       </c>
       <c r="D817" t="n">
-        <v>440120.6</v>
+        <v>58968</v>
       </c>
     </row>
     <row r="818">
@@ -12860,7 +12874,7 @@
         <v>2001</v>
       </c>
       <c r="D818" t="n">
-        <v>500636.9</v>
+        <v>62480.48</v>
       </c>
     </row>
     <row r="819">
@@ -12874,7 +12888,7 @@
         <v>2002</v>
       </c>
       <c r="D819" t="n">
-        <v>575683.55</v>
+        <v>64879.91</v>
       </c>
     </row>
     <row r="820">
@@ -12888,7 +12902,7 @@
         <v>2003</v>
       </c>
       <c r="D820" t="n">
-        <v>624135.79</v>
+        <v>67276.9</v>
       </c>
     </row>
     <row r="821">
@@ -12902,7 +12916,7 @@
         <v>2004</v>
       </c>
       <c r="D821" t="n">
-        <v>669869.02</v>
+        <v>67260.06</v>
       </c>
     </row>
     <row r="822">
@@ -12916,7 +12930,7 @@
         <v>2005</v>
       </c>
       <c r="D822" t="n">
-        <v>765036.69</v>
+        <v>68544.12</v>
       </c>
     </row>
     <row r="823">
@@ -12930,7 +12944,7 @@
         <v>2006</v>
       </c>
       <c r="D823" t="n">
-        <v>875964.3</v>
+        <v>80418.87</v>
       </c>
     </row>
     <row r="824">
@@ -12944,7 +12958,7 @@
         <v>2007</v>
       </c>
       <c r="D824" t="n">
-        <v>999330.85</v>
+        <v>85211.45</v>
       </c>
     </row>
     <row r="825">
@@ -12958,7 +12972,7 @@
         <v>2008</v>
       </c>
       <c r="D825" t="n">
-        <v>1182414.52</v>
+        <v>83861.16</v>
       </c>
     </row>
     <row r="826">
@@ -12972,7 +12986,7 @@
         <v>2009</v>
       </c>
       <c r="D826" t="n">
-        <v>1472214.95</v>
+        <v>94475.89</v>
       </c>
     </row>
     <row r="827">
@@ -12986,7 +13000,7 @@
         <v>2010</v>
       </c>
       <c r="D827" t="n">
-        <v>1596992.46</v>
+        <v>97805.9</v>
       </c>
     </row>
     <row r="828">
@@ -13000,7 +13014,7 @@
         <v>2011</v>
       </c>
       <c r="D828" t="n">
-        <v>1826084.3</v>
+        <v>101622.52</v>
       </c>
     </row>
     <row r="829">
@@ -13014,7 +13028,7 @@
         <v>2012</v>
       </c>
       <c r="D829" t="n">
-        <v>2043849.07</v>
+        <v>104498.67</v>
       </c>
     </row>
     <row r="830">
@@ -13028,7 +13042,7 @@
         <v>1990</v>
       </c>
       <c r="D830" t="n">
-        <v>29840.47</v>
+        <v>134.22</v>
       </c>
     </row>
     <row r="831">
@@ -13042,7 +13056,7 @@
         <v>1991</v>
       </c>
       <c r="D831" t="n">
-        <v>30974.59</v>
+        <v>126.64</v>
       </c>
     </row>
     <row r="832">
@@ -13056,7 +13070,7 @@
         <v>1992</v>
       </c>
       <c r="D832" t="n">
-        <v>33631.94</v>
+        <v>142.32</v>
       </c>
     </row>
     <row r="833">
@@ -13070,7 +13084,7 @@
         <v>1993</v>
       </c>
       <c r="D833" t="n">
-        <v>38632.1</v>
+        <v>128.88</v>
       </c>
     </row>
     <row r="834">
@@ -13084,7 +13098,7 @@
         <v>1994</v>
       </c>
       <c r="D834" t="n">
-        <v>41777.61</v>
+        <v>156.73</v>
       </c>
     </row>
     <row r="835">
@@ -13098,7 +13112,7 @@
         <v>1995</v>
       </c>
       <c r="D835" t="n">
-        <v>47419.45</v>
+        <v>135.11</v>
       </c>
     </row>
     <row r="836">
@@ -13112,7 +13126,7 @@
         <v>1996</v>
       </c>
       <c r="D836" t="n">
-        <v>54658.28</v>
+        <v>111.9</v>
       </c>
     </row>
     <row r="837">
@@ -13126,7 +13140,7 @@
         <v>1997</v>
       </c>
       <c r="D837" t="n">
-        <v>59030.93</v>
+        <v>109.76</v>
       </c>
     </row>
     <row r="838">
@@ -13140,7 +13154,7 @@
         <v>1998</v>
       </c>
       <c r="D838" t="n">
-        <v>59740.83</v>
+        <v>108.15</v>
       </c>
     </row>
     <row r="839">
@@ -13154,7 +13168,7 @@
         <v>1999</v>
       </c>
       <c r="D839" t="n">
-        <v>61396.27</v>
+        <v>87.12</v>
       </c>
     </row>
     <row r="840">
@@ -13168,7 +13182,7 @@
         <v>2000</v>
       </c>
       <c r="D840" t="n">
-        <v>58968</v>
+        <v>75.59</v>
       </c>
     </row>
     <row r="841">
@@ -13182,7 +13196,7 @@
         <v>2001</v>
       </c>
       <c r="D841" t="n">
-        <v>62480.48</v>
+        <v>105.05</v>
       </c>
     </row>
     <row r="842">
@@ -13196,7 +13210,7 @@
         <v>2002</v>
       </c>
       <c r="D842" t="n">
-        <v>64879.91</v>
+        <v>118</v>
       </c>
     </row>
     <row r="843">
@@ -13210,7 +13224,7 @@
         <v>2003</v>
       </c>
       <c r="D843" t="n">
-        <v>67276.9</v>
+        <v>108.14</v>
       </c>
     </row>
     <row r="844">
@@ -13224,7 +13238,7 @@
         <v>2004</v>
       </c>
       <c r="D844" t="n">
-        <v>67260.06</v>
+        <v>100</v>
       </c>
     </row>
     <row r="845">
@@ -13238,7 +13252,7 @@
         <v>2005</v>
       </c>
       <c r="D845" t="n">
-        <v>68544.12</v>
+        <v>103.97</v>
       </c>
     </row>
     <row r="846">
@@ -13252,7 +13266,7 @@
         <v>2006</v>
       </c>
       <c r="D846" t="n">
-        <v>80418.87</v>
+        <v>112.01</v>
       </c>
     </row>
     <row r="847">
@@ -13266,7 +13280,7 @@
         <v>2007</v>
       </c>
       <c r="D847" t="n">
-        <v>85211.45</v>
+        <v>120.51</v>
       </c>
     </row>
     <row r="848">
@@ -13280,7 +13294,7 @@
         <v>2008</v>
       </c>
       <c r="D848" t="n">
-        <v>83861.16</v>
+        <v>136.11</v>
       </c>
     </row>
     <row r="849">
@@ -13294,7 +13308,7 @@
         <v>2009</v>
       </c>
       <c r="D849" t="n">
-        <v>94475.89</v>
+        <v>108.41</v>
       </c>
     </row>
     <row r="850">
@@ -13308,7 +13322,7 @@
         <v>2010</v>
       </c>
       <c r="D850" t="n">
-        <v>97805.9</v>
+        <v>108.76</v>
       </c>
     </row>
     <row r="851">
@@ -13322,7 +13336,7 @@
         <v>2011</v>
       </c>
       <c r="D851" t="n">
-        <v>101622.52</v>
+        <v>125.67</v>
       </c>
     </row>
     <row r="852">
@@ -13336,7 +13350,7 @@
         <v>2012</v>
       </c>
       <c r="D852" t="n">
-        <v>104498.67</v>
+        <v>145.95</v>
       </c>
     </row>
     <row r="853">
@@ -13350,7 +13364,7 @@
         <v>1990</v>
       </c>
       <c r="D853" t="n">
-        <v>134.22</v>
+        <v>2222.84</v>
       </c>
     </row>
     <row r="854">
@@ -13364,7 +13378,7 @@
         <v>1991</v>
       </c>
       <c r="D854" t="n">
-        <v>126.64</v>
+        <v>2731.12</v>
       </c>
     </row>
     <row r="855">
@@ -13378,7 +13392,7 @@
         <v>1992</v>
       </c>
       <c r="D855" t="n">
-        <v>142.32</v>
+        <v>2705.23</v>
       </c>
     </row>
     <row r="856">
@@ -13392,7 +13406,7 @@
         <v>1993</v>
       </c>
       <c r="D856" t="n">
-        <v>128.88</v>
+        <v>2686.4</v>
       </c>
     </row>
     <row r="857">
@@ -13406,7 +13420,7 @@
         <v>1994</v>
       </c>
       <c r="D857" t="n">
-        <v>156.73</v>
+        <v>2479.77</v>
       </c>
     </row>
     <row r="858">
@@ -13420,7 +13434,7 @@
         <v>1995</v>
       </c>
       <c r="D858" t="n">
-        <v>135.11</v>
+        <v>2300.72</v>
       </c>
     </row>
     <row r="859">
@@ -13434,7 +13448,7 @@
         <v>1996</v>
       </c>
       <c r="D859" t="n">
-        <v>111.9</v>
+        <v>1316.55</v>
       </c>
     </row>
     <row r="860">
@@ -13448,7 +13462,7 @@
         <v>1997</v>
       </c>
       <c r="D860" t="n">
-        <v>109.76</v>
+        <v>1871.46</v>
       </c>
     </row>
     <row r="861">
@@ -13462,7 +13476,7 @@
         <v>1998</v>
       </c>
       <c r="D861" t="n">
-        <v>108.15</v>
+        <v>2286.11</v>
       </c>
     </row>
     <row r="862">
@@ -13476,7 +13490,7 @@
         <v>1999</v>
       </c>
       <c r="D862" t="n">
-        <v>87.12</v>
+        <v>2428.72</v>
       </c>
     </row>
     <row r="863">
@@ -13490,7 +13504,7 @@
         <v>2000</v>
       </c>
       <c r="D863" t="n">
-        <v>75.59</v>
+        <v>2060.15</v>
       </c>
     </row>
     <row r="864">
@@ -13504,7 +13518,7 @@
         <v>2001</v>
       </c>
       <c r="D864" t="n">
-        <v>105.05</v>
+        <v>2057.59</v>
       </c>
     </row>
     <row r="865">
@@ -13518,7 +13532,7 @@
         <v>2002</v>
       </c>
       <c r="D865" t="n">
-        <v>118</v>
+        <v>2431.67</v>
       </c>
     </row>
     <row r="866">
@@ -13532,7 +13546,7 @@
         <v>2003</v>
       </c>
       <c r="D866" t="n">
-        <v>108.14</v>
+        <v>2639.02</v>
       </c>
     </row>
     <row r="867">
@@ -13546,7 +13560,7 @@
         <v>2004</v>
       </c>
       <c r="D867" t="n">
-        <v>100</v>
+        <v>2435.49</v>
       </c>
     </row>
     <row r="868">
@@ -13560,7 +13574,7 @@
         <v>2005</v>
       </c>
       <c r="D868" t="n">
-        <v>103.97</v>
+        <v>2370.97</v>
       </c>
     </row>
     <row r="869">
@@ -13574,7 +13588,7 @@
         <v>2006</v>
       </c>
       <c r="D869" t="n">
-        <v>112.01</v>
+        <v>2858.99</v>
       </c>
     </row>
     <row r="870">
@@ -13588,7 +13602,7 @@
         <v>2007</v>
       </c>
       <c r="D870" t="n">
-        <v>120.51</v>
+        <v>3083.96</v>
       </c>
     </row>
     <row r="871">
@@ -13602,7 +13616,7 @@
         <v>2008</v>
       </c>
       <c r="D871" t="n">
-        <v>136.11</v>
+        <v>2575.83</v>
       </c>
     </row>
     <row r="872">
@@ -13616,7 +13630,7 @@
         <v>2009</v>
       </c>
       <c r="D872" t="n">
-        <v>108.41</v>
+        <v>2884.92</v>
       </c>
     </row>
     <row r="873">
@@ -13630,7 +13644,7 @@
         <v>2010</v>
       </c>
       <c r="D873" t="n">
-        <v>108.76</v>
+        <v>2729.79</v>
       </c>
     </row>
     <row r="874">
@@ -13644,7 +13658,7 @@
         <v>2011</v>
       </c>
       <c r="D874" t="n">
-        <v>125.67</v>
+        <v>3430.22</v>
       </c>
     </row>
     <row r="875">
@@ -13658,7 +13672,7 @@
         <v>2012</v>
       </c>
       <c r="D875" t="n">
-        <v>145.95</v>
+        <v>4950.34</v>
       </c>
     </row>
     <row r="876">
@@ -13671,9 +13685,7 @@
       <c r="C876" t="n">
         <v>1990</v>
       </c>
-      <c r="D876" t="n">
-        <v>2222.84</v>
-      </c>
+      <c r="D876"/>
     </row>
     <row r="877">
       <c r="A877" t="s">
@@ -13685,9 +13697,7 @@
       <c r="C877" t="n">
         <v>1991</v>
       </c>
-      <c r="D877" t="n">
-        <v>2731.12</v>
-      </c>
+      <c r="D877"/>
     </row>
     <row r="878">
       <c r="A878" t="s">
@@ -13699,9 +13709,7 @@
       <c r="C878" t="n">
         <v>1992</v>
       </c>
-      <c r="D878" t="n">
-        <v>2705.23</v>
-      </c>
+      <c r="D878"/>
     </row>
     <row r="879">
       <c r="A879" t="s">
@@ -13713,9 +13721,7 @@
       <c r="C879" t="n">
         <v>1993</v>
       </c>
-      <c r="D879" t="n">
-        <v>2686.4</v>
-      </c>
+      <c r="D879"/>
     </row>
     <row r="880">
       <c r="A880" t="s">
@@ -13727,9 +13733,7 @@
       <c r="C880" t="n">
         <v>1994</v>
       </c>
-      <c r="D880" t="n">
-        <v>2479.77</v>
-      </c>
+      <c r="D880"/>
     </row>
     <row r="881">
       <c r="A881" t="s">
@@ -13741,9 +13745,7 @@
       <c r="C881" t="n">
         <v>1995</v>
       </c>
-      <c r="D881" t="n">
-        <v>2300.72</v>
-      </c>
+      <c r="D881"/>
     </row>
     <row r="882">
       <c r="A882" t="s">
@@ -13755,9 +13757,7 @@
       <c r="C882" t="n">
         <v>1996</v>
       </c>
-      <c r="D882" t="n">
-        <v>1316.55</v>
-      </c>
+      <c r="D882"/>
     </row>
     <row r="883">
       <c r="A883" t="s">
@@ -13769,9 +13769,7 @@
       <c r="C883" t="n">
         <v>1997</v>
       </c>
-      <c r="D883" t="n">
-        <v>1871.46</v>
-      </c>
+      <c r="D883"/>
     </row>
     <row r="884">
       <c r="A884" t="s">
@@ -13783,9 +13781,7 @@
       <c r="C884" t="n">
         <v>1998</v>
       </c>
-      <c r="D884" t="n">
-        <v>2286.11</v>
-      </c>
+      <c r="D884"/>
     </row>
     <row r="885">
       <c r="A885" t="s">
@@ -13797,9 +13793,7 @@
       <c r="C885" t="n">
         <v>1999</v>
       </c>
-      <c r="D885" t="n">
-        <v>2428.72</v>
-      </c>
+      <c r="D885"/>
     </row>
     <row r="886">
       <c r="A886" t="s">
@@ -13812,7 +13806,7 @@
         <v>2000</v>
       </c>
       <c r="D886" t="n">
-        <v>2060.15</v>
+        <v>4284.31</v>
       </c>
     </row>
     <row r="887">
@@ -13826,7 +13820,7 @@
         <v>2001</v>
       </c>
       <c r="D887" t="n">
-        <v>2057.59</v>
+        <v>4588.33</v>
       </c>
     </row>
     <row r="888">
@@ -13840,7 +13834,7 @@
         <v>2002</v>
       </c>
       <c r="D888" t="n">
-        <v>2431.67</v>
+        <v>5122.4</v>
       </c>
     </row>
     <row r="889">
@@ -13854,7 +13848,7 @@
         <v>2003</v>
       </c>
       <c r="D889" t="n">
-        <v>2639.02</v>
+        <v>5170.77</v>
       </c>
     </row>
     <row r="890">
@@ -13868,7 +13862,7 @@
         <v>2004</v>
       </c>
       <c r="D890" t="n">
-        <v>2435.49</v>
+        <v>5297.31</v>
       </c>
     </row>
     <row r="891">
@@ -13882,7 +13876,7 @@
         <v>2005</v>
       </c>
       <c r="D891" t="n">
-        <v>2370.97</v>
+        <v>5486.52</v>
       </c>
     </row>
     <row r="892">
@@ -13896,7 +13890,7 @@
         <v>2006</v>
       </c>
       <c r="D892" t="n">
-        <v>2858.99</v>
+        <v>5615.83</v>
       </c>
     </row>
     <row r="893">
@@ -13910,7 +13904,7 @@
         <v>2007</v>
       </c>
       <c r="D893" t="n">
-        <v>3083.96</v>
+        <v>5866.81</v>
       </c>
     </row>
     <row r="894">
@@ -13924,7 +13918,7 @@
         <v>2008</v>
       </c>
       <c r="D894" t="n">
-        <v>2575.83</v>
+        <v>6419.04</v>
       </c>
     </row>
     <row r="895">
@@ -13938,7 +13932,7 @@
         <v>2009</v>
       </c>
       <c r="D895" t="n">
-        <v>2884.92</v>
+        <v>6936.56</v>
       </c>
     </row>
     <row r="896">
@@ -13952,7 +13946,7 @@
         <v>2010</v>
       </c>
       <c r="D896" t="n">
-        <v>2729.79</v>
+        <v>7838.94</v>
       </c>
     </row>
     <row r="897">
@@ -13966,7 +13960,7 @@
         <v>2011</v>
       </c>
       <c r="D897" t="n">
-        <v>3430.22</v>
+        <v>7787.22</v>
       </c>
     </row>
     <row r="898">
@@ -13980,7 +13974,7 @@
         <v>2012</v>
       </c>
       <c r="D898" t="n">
-        <v>4950.34</v>
+        <v>8307.26</v>
       </c>
     </row>
     <row r="899">
@@ -14077,7 +14071,9 @@
       <c r="C906" t="n">
         <v>1997</v>
       </c>
-      <c r="D906"/>
+      <c r="D906" t="n">
+        <v>4589.46</v>
+      </c>
     </row>
     <row r="907">
       <c r="A907" t="s">
@@ -14089,7 +14085,9 @@
       <c r="C907" t="n">
         <v>1998</v>
       </c>
-      <c r="D907"/>
+      <c r="D907" t="n">
+        <v>4595.98</v>
+      </c>
     </row>
     <row r="908">
       <c r="A908" t="s">
@@ -14101,7 +14099,9 @@
       <c r="C908" t="n">
         <v>1999</v>
       </c>
-      <c r="D908"/>
+      <c r="D908" t="n">
+        <v>4365.6</v>
+      </c>
     </row>
     <row r="909">
       <c r="A909" t="s">
@@ -14114,7 +14114,7 @@
         <v>2000</v>
       </c>
       <c r="D909" t="n">
-        <v>4284.31</v>
+        <v>3878.25</v>
       </c>
     </row>
     <row r="910">
@@ -14128,7 +14128,7 @@
         <v>2001</v>
       </c>
       <c r="D910" t="n">
-        <v>4588.33</v>
+        <v>3554.7</v>
       </c>
     </row>
     <row r="911">
@@ -14142,7 +14142,7 @@
         <v>2002</v>
       </c>
       <c r="D911" t="n">
-        <v>5122.4</v>
+        <v>3682.93</v>
       </c>
     </row>
     <row r="912">
@@ -14156,7 +14156,7 @@
         <v>2003</v>
       </c>
       <c r="D912" t="n">
-        <v>5170.77</v>
+        <v>4001.21</v>
       </c>
     </row>
     <row r="913">
@@ -14170,7 +14170,7 @@
         <v>2004</v>
       </c>
       <c r="D913" t="n">
-        <v>5297.31</v>
+        <v>4157.52</v>
       </c>
     </row>
     <row r="914">
@@ -14184,7 +14184,7 @@
         <v>2005</v>
       </c>
       <c r="D914" t="n">
-        <v>5486.52</v>
+        <v>4163.62</v>
       </c>
     </row>
     <row r="915">
@@ -14198,7 +14198,7 @@
         <v>2006</v>
       </c>
       <c r="D915" t="n">
-        <v>5615.83</v>
+        <v>4356.46</v>
       </c>
     </row>
     <row r="916">
@@ -14212,7 +14212,7 @@
         <v>2007</v>
       </c>
       <c r="D916" t="n">
-        <v>5866.81</v>
+        <v>4385.08</v>
       </c>
     </row>
     <row r="917">
@@ -14226,7 +14226,7 @@
         <v>2008</v>
       </c>
       <c r="D917" t="n">
-        <v>6419.04</v>
+        <v>4660.72</v>
       </c>
     </row>
     <row r="918">
@@ -14240,7 +14240,7 @@
         <v>2009</v>
       </c>
       <c r="D918" t="n">
-        <v>6936.56</v>
+        <v>4477.43</v>
       </c>
     </row>
     <row r="919">
@@ -14254,7 +14254,7 @@
         <v>2010</v>
       </c>
       <c r="D919" t="n">
-        <v>7838.94</v>
+        <v>5058.36</v>
       </c>
     </row>
     <row r="920">
@@ -14268,7 +14268,7 @@
         <v>2011</v>
       </c>
       <c r="D920" t="n">
-        <v>7787.22</v>
+        <v>5091.9</v>
       </c>
     </row>
     <row r="921">
@@ -14282,7 +14282,7 @@
         <v>2012</v>
       </c>
       <c r="D921" t="n">
-        <v>8307.26</v>
+        <v>5711.2</v>
       </c>
     </row>
     <row r="922">
@@ -57381,7 +57381,9 @@
       <c r="C4096" t="n">
         <v>1990</v>
       </c>
-      <c r="D4096"/>
+      <c r="D4096" t="n">
+        <v>604070.85</v>
+      </c>
     </row>
     <row r="4097">
       <c r="A4097" t="s">
@@ -57393,7 +57395,9 @@
       <c r="C4097" t="n">
         <v>1991</v>
       </c>
-      <c r="D4097"/>
+      <c r="D4097" t="n">
+        <v>614924.78</v>
+      </c>
     </row>
     <row r="4098">
       <c r="A4098" t="s">
@@ -57405,7 +57409,9 @@
       <c r="C4098" t="n">
         <v>1992</v>
       </c>
-      <c r="D4098"/>
+      <c r="D4098" t="n">
+        <v>653550.71</v>
+      </c>
     </row>
     <row r="4099">
       <c r="A4099" t="s">
@@ -57417,7 +57423,9 @@
       <c r="C4099" t="n">
         <v>1993</v>
       </c>
-      <c r="D4099"/>
+      <c r="D4099" t="n">
+        <v>674891.85</v>
+      </c>
     </row>
     <row r="4100">
       <c r="A4100" t="s">
@@ -57429,7 +57437,9 @@
       <c r="C4100" t="n">
         <v>1994</v>
       </c>
-      <c r="D4100"/>
+      <c r="D4100" t="n">
+        <v>700081.02</v>
+      </c>
     </row>
     <row r="4101">
       <c r="A4101" t="s">
@@ -57441,7 +57451,9 @@
       <c r="C4101" t="n">
         <v>1995</v>
       </c>
-      <c r="D4101"/>
+      <c r="D4101" t="n">
+        <v>716719.01</v>
+      </c>
     </row>
     <row r="4102">
       <c r="A4102" t="s">
@@ -57453,7 +57465,9 @@
       <c r="C4102" t="n">
         <v>1996</v>
       </c>
-      <c r="D4102"/>
+      <c r="D4102" t="n">
+        <v>705193.61</v>
+      </c>
     </row>
     <row r="4103">
       <c r="A4103" t="s">
@@ -57466,7 +57480,7 @@
         <v>1997</v>
       </c>
       <c r="D4103" t="n">
-        <v>44660.45</v>
+        <v>708348.85</v>
       </c>
     </row>
     <row r="4104">
@@ -57480,7 +57494,7 @@
         <v>1998</v>
       </c>
       <c r="D4104" t="n">
-        <v>39840.28</v>
+        <v>714555.91</v>
       </c>
     </row>
     <row r="4105">
@@ -57494,7 +57508,7 @@
         <v>1999</v>
       </c>
       <c r="D4105" t="n">
-        <v>27712.57</v>
+        <v>721737.93</v>
       </c>
     </row>
     <row r="4106">
@@ -57508,7 +57522,7 @@
         <v>2000</v>
       </c>
       <c r="D4106" t="n">
-        <v>40277.45</v>
+        <v>708311.46</v>
       </c>
     </row>
     <row r="4107">
@@ -57522,7 +57536,7 @@
         <v>2001</v>
       </c>
       <c r="D4107" t="n">
-        <v>43822.33</v>
+        <v>786663.23</v>
       </c>
     </row>
     <row r="4108">
@@ -57536,7 +57550,7 @@
         <v>2002</v>
       </c>
       <c r="D4108" t="n">
-        <v>47740.21</v>
+        <v>829103.18</v>
       </c>
     </row>
     <row r="4109">
@@ -57550,7 +57564,7 @@
         <v>2003</v>
       </c>
       <c r="D4109" t="n">
-        <v>53683.49</v>
+        <v>881987.89</v>
       </c>
     </row>
     <row r="4110">
@@ -57564,7 +57578,7 @@
         <v>2004</v>
       </c>
       <c r="D4110" t="n">
-        <v>64325.59</v>
+        <v>923376.96</v>
       </c>
     </row>
     <row r="4111">
@@ -57578,7 +57592,7 @@
         <v>2005</v>
       </c>
       <c r="D4111" t="n">
-        <v>70352.24</v>
+        <v>963614.05</v>
       </c>
     </row>
     <row r="4112">
@@ -57592,7 +57606,7 @@
         <v>2006</v>
       </c>
       <c r="D4112" t="n">
-        <v>76406.45</v>
+        <v>993703.84</v>
       </c>
     </row>
     <row r="4113">
@@ -57606,7 +57620,7 @@
         <v>2007</v>
       </c>
       <c r="D4113" t="n">
-        <v>80795.58</v>
+        <v>1020892</v>
       </c>
     </row>
     <row r="4114">
@@ -57620,7 +57634,7 @@
         <v>2008</v>
       </c>
       <c r="D4114" t="n">
-        <v>89460.61</v>
+        <v>1079165.63</v>
       </c>
     </row>
     <row r="4115">
@@ -57634,7 +57648,7 @@
         <v>2009</v>
       </c>
       <c r="D4115" t="n">
-        <v>78021.78</v>
+        <v>1128701.88</v>
       </c>
     </row>
     <row r="4116">
@@ -57648,7 +57662,7 @@
         <v>2010</v>
       </c>
       <c r="D4116" t="n">
-        <v>81973.43</v>
+        <v>1131189.21</v>
       </c>
     </row>
     <row r="4117">
@@ -57662,7 +57676,7 @@
         <v>2011</v>
       </c>
       <c r="D4117" t="n">
-        <v>80288.7</v>
+        <v>1108485.11</v>
       </c>
     </row>
     <row r="4118">
@@ -57676,7 +57690,7 @@
         <v>2012</v>
       </c>
       <c r="D4118" t="n">
-        <v>86360.44</v>
+        <v>1112236.34</v>
       </c>
     </row>
     <row r="4119">
@@ -57689,9 +57703,7 @@
       <c r="C4119" t="n">
         <v>1990</v>
       </c>
-      <c r="D4119" t="n">
-        <v>604070.85</v>
-      </c>
+      <c r="D4119"/>
     </row>
     <row r="4120">
       <c r="A4120" t="s">
@@ -57703,9 +57715,7 @@
       <c r="C4120" t="n">
         <v>1991</v>
       </c>
-      <c r="D4120" t="n">
-        <v>614924.78</v>
-      </c>
+      <c r="D4120"/>
     </row>
     <row r="4121">
       <c r="A4121" t="s">
@@ -57717,9 +57727,7 @@
       <c r="C4121" t="n">
         <v>1992</v>
       </c>
-      <c r="D4121" t="n">
-        <v>653550.71</v>
-      </c>
+      <c r="D4121"/>
     </row>
     <row r="4122">
       <c r="A4122" t="s">
@@ -57731,9 +57739,7 @@
       <c r="C4122" t="n">
         <v>1993</v>
       </c>
-      <c r="D4122" t="n">
-        <v>674891.85</v>
-      </c>
+      <c r="D4122"/>
     </row>
     <row r="4123">
       <c r="A4123" t="s">
@@ -57745,9 +57751,7 @@
       <c r="C4123" t="n">
         <v>1994</v>
       </c>
-      <c r="D4123" t="n">
-        <v>700081.02</v>
-      </c>
+      <c r="D4123"/>
     </row>
     <row r="4124">
       <c r="A4124" t="s">
@@ -57759,9 +57763,7 @@
       <c r="C4124" t="n">
         <v>1995</v>
       </c>
-      <c r="D4124" t="n">
-        <v>716719.01</v>
-      </c>
+      <c r="D4124"/>
     </row>
     <row r="4125">
       <c r="A4125" t="s">
@@ -57773,9 +57775,7 @@
       <c r="C4125" t="n">
         <v>1996</v>
       </c>
-      <c r="D4125" t="n">
-        <v>705193.61</v>
-      </c>
+      <c r="D4125"/>
     </row>
     <row r="4126">
       <c r="A4126" t="s">
@@ -57788,7 +57788,7 @@
         <v>1997</v>
       </c>
       <c r="D4126" t="n">
-        <v>708348.85</v>
+        <v>44660.45</v>
       </c>
     </row>
     <row r="4127">
@@ -57802,7 +57802,7 @@
         <v>1998</v>
       </c>
       <c r="D4127" t="n">
-        <v>714555.91</v>
+        <v>39840.28</v>
       </c>
     </row>
     <row r="4128">
@@ -57816,7 +57816,7 @@
         <v>1999</v>
       </c>
       <c r="D4128" t="n">
-        <v>721737.93</v>
+        <v>27712.57</v>
       </c>
     </row>
     <row r="4129">
@@ -57830,7 +57830,7 @@
         <v>2000</v>
       </c>
       <c r="D4129" t="n">
-        <v>708311.46</v>
+        <v>40277.45</v>
       </c>
     </row>
     <row r="4130">
@@ -57844,7 +57844,7 @@
         <v>2001</v>
       </c>
       <c r="D4130" t="n">
-        <v>786663.23</v>
+        <v>43822.33</v>
       </c>
     </row>
     <row r="4131">
@@ -57858,7 +57858,7 @@
         <v>2002</v>
       </c>
       <c r="D4131" t="n">
-        <v>829103.18</v>
+        <v>47740.21</v>
       </c>
     </row>
     <row r="4132">
@@ -57872,7 +57872,7 @@
         <v>2003</v>
       </c>
       <c r="D4132" t="n">
-        <v>881987.89</v>
+        <v>53683.49</v>
       </c>
     </row>
     <row r="4133">
@@ -57886,7 +57886,7 @@
         <v>2004</v>
       </c>
       <c r="D4133" t="n">
-        <v>923376.96</v>
+        <v>64325.59</v>
       </c>
     </row>
     <row r="4134">
@@ -57900,7 +57900,7 @@
         <v>2005</v>
       </c>
       <c r="D4134" t="n">
-        <v>963614.05</v>
+        <v>70352.24</v>
       </c>
     </row>
     <row r="4135">
@@ -57914,7 +57914,7 @@
         <v>2006</v>
       </c>
       <c r="D4135" t="n">
-        <v>993703.84</v>
+        <v>76406.45</v>
       </c>
     </row>
     <row r="4136">
@@ -57928,7 +57928,7 @@
         <v>2007</v>
       </c>
       <c r="D4136" t="n">
-        <v>1020892</v>
+        <v>80795.58</v>
       </c>
     </row>
     <row r="4137">
@@ -57942,7 +57942,7 @@
         <v>2008</v>
       </c>
       <c r="D4137" t="n">
-        <v>1079165.63</v>
+        <v>89460.61</v>
       </c>
     </row>
     <row r="4138">
@@ -57956,7 +57956,7 @@
         <v>2009</v>
       </c>
       <c r="D4138" t="n">
-        <v>1128701.88</v>
+        <v>78021.78</v>
       </c>
     </row>
     <row r="4139">
@@ -57970,7 +57970,7 @@
         <v>2010</v>
       </c>
       <c r="D4139" t="n">
-        <v>1131189.21</v>
+        <v>81973.43</v>
       </c>
     </row>
     <row r="4140">
@@ -57984,7 +57984,7 @@
         <v>2011</v>
       </c>
       <c r="D4140" t="n">
-        <v>1108485.11</v>
+        <v>80288.7</v>
       </c>
     </row>
     <row r="4141">
@@ -57998,7 +57998,7 @@
         <v>2012</v>
       </c>
       <c r="D4141" t="n">
-        <v>1112236.34</v>
+        <v>86360.44</v>
       </c>
     </row>
     <row r="4142">
@@ -62748,54 +62748,56 @@
       <c r="F29"/>
       <c r="G29"/>
       <c r="H29"/>
-      <c r="I29"/>
+      <c r="I29" t="n">
+        <v>659.63</v>
+      </c>
       <c r="J29" t="n">
-        <v>4589.46</v>
+        <v>552.25</v>
       </c>
       <c r="K29" t="n">
-        <v>4595.98</v>
+        <v>626.1</v>
       </c>
       <c r="L29" t="n">
-        <v>4365.6</v>
+        <v>721.58</v>
       </c>
       <c r="M29" t="n">
-        <v>3878.25</v>
+        <v>855.27</v>
       </c>
       <c r="N29" t="n">
-        <v>3554.7</v>
+        <v>930.37</v>
       </c>
       <c r="O29" t="n">
-        <v>3682.93</v>
+        <v>1050.87</v>
       </c>
       <c r="P29" t="n">
-        <v>4001.21</v>
+        <v>1078.65</v>
       </c>
       <c r="Q29" t="n">
-        <v>4157.52</v>
+        <v>1082.04</v>
       </c>
       <c r="R29" t="n">
-        <v>4163.62</v>
+        <v>1095.63</v>
       </c>
       <c r="S29" t="n">
-        <v>4356.46</v>
+        <v>1274.66</v>
       </c>
       <c r="T29" t="n">
-        <v>4385.08</v>
+        <v>1549.64</v>
       </c>
       <c r="U29" t="n">
-        <v>4660.72</v>
+        <v>1803.83</v>
       </c>
       <c r="V29" t="n">
-        <v>4477.43</v>
+        <v>2319.72</v>
       </c>
       <c r="W29" t="n">
-        <v>5058.36</v>
+        <v>2442.68</v>
       </c>
       <c r="X29" t="n">
-        <v>5091.9</v>
+        <v>2582.47</v>
       </c>
       <c r="Y29" t="n">
-        <v>5711.2</v>
+        <v>2922.71</v>
       </c>
     </row>
     <row r="30">
@@ -62811,56 +62813,48 @@
       <c r="F30"/>
       <c r="G30"/>
       <c r="H30"/>
-      <c r="I30" t="n">
-        <v>659.63</v>
-      </c>
-      <c r="J30" t="n">
-        <v>552.25</v>
-      </c>
-      <c r="K30" t="n">
-        <v>626.1</v>
-      </c>
-      <c r="L30" t="n">
-        <v>721.58</v>
-      </c>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
       <c r="M30" t="n">
-        <v>855.27</v>
+        <v>2770.84</v>
       </c>
       <c r="N30" t="n">
-        <v>930.37</v>
+        <v>2950.02</v>
       </c>
       <c r="O30" t="n">
-        <v>1050.87</v>
+        <v>2777.5</v>
       </c>
       <c r="P30" t="n">
-        <v>1078.65</v>
+        <v>2874.01</v>
       </c>
       <c r="Q30" t="n">
-        <v>1082.04</v>
+        <v>3119.83</v>
       </c>
       <c r="R30" t="n">
-        <v>1095.63</v>
+        <v>2917.91</v>
       </c>
       <c r="S30" t="n">
-        <v>1274.66</v>
+        <v>2872.09</v>
       </c>
       <c r="T30" t="n">
-        <v>1549.64</v>
+        <v>3320.71</v>
       </c>
       <c r="U30" t="n">
-        <v>1803.83</v>
+        <v>3965.15</v>
       </c>
       <c r="V30" t="n">
-        <v>2319.72</v>
+        <v>4001</v>
       </c>
       <c r="W30" t="n">
-        <v>2442.68</v>
+        <v>4298.11</v>
       </c>
       <c r="X30" t="n">
-        <v>2582.47</v>
+        <v>5189.35</v>
       </c>
       <c r="Y30" t="n">
-        <v>2922.71</v>
+        <v>5175.38</v>
       </c>
     </row>
     <row r="31">
@@ -62870,54 +62864,74 @@
       <c r="B31" t="s">
         <v>63</v>
       </c>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
+      <c r="C31" t="n">
+        <v>576307.44</v>
+      </c>
+      <c r="D31" t="n">
+        <v>608442.83</v>
+      </c>
+      <c r="E31" t="n">
+        <v>626511.1</v>
+      </c>
+      <c r="F31" t="n">
+        <v>627626.59</v>
+      </c>
+      <c r="G31" t="n">
+        <v>626719.12</v>
+      </c>
+      <c r="H31" t="n">
+        <v>628161.6</v>
+      </c>
+      <c r="I31" t="n">
+        <v>605666.09</v>
+      </c>
+      <c r="J31" t="n">
+        <v>589483.58</v>
+      </c>
+      <c r="K31" t="n">
+        <v>620258.27</v>
+      </c>
+      <c r="L31" t="n">
+        <v>632939.02</v>
+      </c>
       <c r="M31" t="n">
-        <v>2770.84</v>
+        <v>631836.63</v>
       </c>
       <c r="N31" t="n">
-        <v>2950.02</v>
+        <v>653356.74</v>
       </c>
       <c r="O31" t="n">
-        <v>2777.5</v>
+        <v>656150.26</v>
       </c>
       <c r="P31" t="n">
-        <v>2874.01</v>
+        <v>672402.85</v>
       </c>
       <c r="Q31" t="n">
-        <v>3119.83</v>
+        <v>670795.27</v>
       </c>
       <c r="R31" t="n">
-        <v>2917.91</v>
+        <v>698046.99</v>
       </c>
       <c r="S31" t="n">
-        <v>2872.09</v>
+        <v>710241.23</v>
       </c>
       <c r="T31" t="n">
-        <v>3320.71</v>
+        <v>723026.61</v>
       </c>
       <c r="U31" t="n">
-        <v>3965.15</v>
+        <v>742272.7</v>
       </c>
       <c r="V31" t="n">
-        <v>4001</v>
+        <v>798252.59</v>
       </c>
       <c r="W31" t="n">
-        <v>4298.11</v>
+        <v>826460.72</v>
       </c>
       <c r="X31" t="n">
-        <v>5189.35</v>
+        <v>820759.68</v>
       </c>
       <c r="Y31" t="n">
-        <v>5175.38</v>
+        <v>816717.72</v>
       </c>
     </row>
     <row r="32">
@@ -62927,74 +62941,50 @@
       <c r="B32" t="s">
         <v>65</v>
       </c>
-      <c r="C32" t="n">
-        <v>576307.44</v>
-      </c>
-      <c r="D32" t="n">
-        <v>608442.83</v>
-      </c>
-      <c r="E32" t="n">
-        <v>626511.1</v>
-      </c>
-      <c r="F32" t="n">
-        <v>627626.59</v>
-      </c>
-      <c r="G32" t="n">
-        <v>626719.12</v>
-      </c>
-      <c r="H32" t="n">
-        <v>628161.6</v>
-      </c>
-      <c r="I32" t="n">
-        <v>605666.09</v>
-      </c>
-      <c r="J32" t="n">
-        <v>589483.58</v>
-      </c>
-      <c r="K32" t="n">
-        <v>620258.27</v>
-      </c>
-      <c r="L32" t="n">
-        <v>632939.02</v>
-      </c>
-      <c r="M32" t="n">
-        <v>631836.63</v>
-      </c>
-      <c r="N32" t="n">
-        <v>653356.74</v>
-      </c>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
       <c r="O32" t="n">
-        <v>656150.26</v>
+        <v>401.76</v>
       </c>
       <c r="P32" t="n">
-        <v>672402.85</v>
+        <v>332.98</v>
       </c>
       <c r="Q32" t="n">
-        <v>670795.27</v>
+        <v>393.93</v>
       </c>
       <c r="R32" t="n">
-        <v>698046.99</v>
+        <v>432.22</v>
       </c>
       <c r="S32" t="n">
-        <v>710241.23</v>
+        <v>485</v>
       </c>
       <c r="T32" t="n">
-        <v>723026.61</v>
+        <v>451.7</v>
       </c>
       <c r="U32" t="n">
-        <v>742272.7</v>
+        <v>491.5</v>
       </c>
       <c r="V32" t="n">
-        <v>798252.59</v>
+        <v>536.46</v>
       </c>
       <c r="W32" t="n">
-        <v>826460.72</v>
+        <v>626.75</v>
       </c>
       <c r="X32" t="n">
-        <v>820759.68</v>
+        <v>582.69</v>
       </c>
       <c r="Y32" t="n">
-        <v>816717.72</v>
+        <v>582.4</v>
       </c>
     </row>
     <row r="33">
@@ -63004,50 +62994,74 @@
       <c r="B33" t="s">
         <v>67</v>
       </c>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
-      <c r="M33"/>
-      <c r="N33"/>
+      <c r="C33" t="n">
+        <v>346.79</v>
+      </c>
+      <c r="D33" t="n">
+        <v>341.85</v>
+      </c>
+      <c r="E33" t="n">
+        <v>303.97</v>
+      </c>
+      <c r="F33" t="n">
+        <v>162.15</v>
+      </c>
+      <c r="G33" t="n">
+        <v>342.27</v>
+      </c>
+      <c r="H33" t="n">
+        <v>281.75</v>
+      </c>
+      <c r="I33" t="n">
+        <v>263.28</v>
+      </c>
+      <c r="J33" t="n">
+        <v>211.43</v>
+      </c>
+      <c r="K33" t="n">
+        <v>295.91</v>
+      </c>
+      <c r="L33" t="n">
+        <v>295.15</v>
+      </c>
+      <c r="M33" t="n">
+        <v>293.83</v>
+      </c>
+      <c r="N33" t="n">
+        <v>248.49</v>
+      </c>
       <c r="O33" t="n">
-        <v>401.76</v>
+        <v>297.73</v>
       </c>
       <c r="P33" t="n">
-        <v>332.98</v>
+        <v>214.49</v>
       </c>
       <c r="Q33" t="n">
-        <v>393.93</v>
+        <v>207.22</v>
       </c>
       <c r="R33" t="n">
-        <v>432.22</v>
+        <v>284.48</v>
       </c>
       <c r="S33" t="n">
-        <v>485</v>
+        <v>244.06</v>
       </c>
       <c r="T33" t="n">
-        <v>451.7</v>
+        <v>190.6</v>
       </c>
       <c r="U33" t="n">
-        <v>491.5</v>
+        <v>281.73</v>
       </c>
       <c r="V33" t="n">
-        <v>536.46</v>
+        <v>250.66</v>
       </c>
       <c r="W33" t="n">
-        <v>626.75</v>
+        <v>337.79</v>
       </c>
       <c r="X33" t="n">
-        <v>582.69</v>
+        <v>327.6</v>
       </c>
       <c r="Y33" t="n">
-        <v>582.4</v>
+        <v>325.08</v>
       </c>
     </row>
     <row r="34">
@@ -63057,74 +63071,64 @@
       <c r="B34" t="s">
         <v>69</v>
       </c>
-      <c r="C34" t="n">
-        <v>346.79</v>
-      </c>
-      <c r="D34" t="n">
-        <v>341.85</v>
-      </c>
-      <c r="E34" t="n">
-        <v>303.97</v>
-      </c>
-      <c r="F34" t="n">
-        <v>162.15</v>
-      </c>
-      <c r="G34" t="n">
-        <v>342.27</v>
-      </c>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
       <c r="H34" t="n">
-        <v>281.75</v>
+        <v>654.04</v>
       </c>
       <c r="I34" t="n">
-        <v>263.28</v>
+        <v>651.12</v>
       </c>
       <c r="J34" t="n">
-        <v>211.43</v>
+        <v>688.86</v>
       </c>
       <c r="K34" t="n">
-        <v>295.91</v>
+        <v>622.6</v>
       </c>
       <c r="L34" t="n">
-        <v>295.15</v>
+        <v>785.51</v>
       </c>
       <c r="M34" t="n">
-        <v>293.83</v>
+        <v>847.94</v>
       </c>
       <c r="N34" t="n">
-        <v>248.49</v>
+        <v>808.58</v>
       </c>
       <c r="O34" t="n">
-        <v>297.73</v>
+        <v>936.75</v>
       </c>
       <c r="P34" t="n">
-        <v>214.49</v>
+        <v>1228.43</v>
       </c>
       <c r="Q34" t="n">
-        <v>207.22</v>
+        <v>1096.8</v>
       </c>
       <c r="R34" t="n">
-        <v>284.48</v>
+        <v>1041.62</v>
       </c>
       <c r="S34" t="n">
-        <v>244.06</v>
+        <v>1293.91</v>
       </c>
       <c r="T34" t="n">
-        <v>190.6</v>
+        <v>1661.21</v>
       </c>
       <c r="U34" t="n">
-        <v>281.73</v>
+        <v>1886.05</v>
       </c>
       <c r="V34" t="n">
-        <v>250.66</v>
+        <v>2522.65</v>
       </c>
       <c r="W34" t="n">
-        <v>337.79</v>
+        <v>2888.28</v>
       </c>
       <c r="X34" t="n">
-        <v>327.6</v>
+        <v>2651.82</v>
       </c>
       <c r="Y34" t="n">
-        <v>325.08</v>
+        <v>2963.43</v>
       </c>
     </row>
     <row r="35">
@@ -63134,64 +63138,74 @@
       <c r="B35" t="s">
         <v>71</v>
       </c>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
+      <c r="C35" t="n">
+        <v>18348.36</v>
+      </c>
+      <c r="D35" t="n">
+        <v>20105.6</v>
+      </c>
+      <c r="E35" t="n">
+        <v>22130.06</v>
+      </c>
+      <c r="F35" t="n">
+        <v>24025.44</v>
+      </c>
+      <c r="G35" t="n">
+        <v>24793</v>
+      </c>
       <c r="H35" t="n">
-        <v>654.04</v>
+        <v>25798.83</v>
       </c>
       <c r="I35" t="n">
-        <v>651.12</v>
+        <v>29377.49</v>
       </c>
       <c r="J35" t="n">
-        <v>688.86</v>
+        <v>31336.11</v>
       </c>
       <c r="K35" t="n">
-        <v>622.6</v>
+        <v>34179.17</v>
       </c>
       <c r="L35" t="n">
-        <v>785.51</v>
+        <v>36614.24</v>
       </c>
       <c r="M35" t="n">
-        <v>847.94</v>
+        <v>36879.24</v>
       </c>
       <c r="N35" t="n">
-        <v>808.58</v>
+        <v>38623.3</v>
       </c>
       <c r="O35" t="n">
-        <v>936.75</v>
+        <v>39502.02</v>
       </c>
       <c r="P35" t="n">
-        <v>1228.43</v>
+        <v>39183.9</v>
       </c>
       <c r="Q35" t="n">
-        <v>1096.8</v>
+        <v>38984.2</v>
       </c>
       <c r="R35" t="n">
-        <v>1041.62</v>
+        <v>40149.7</v>
       </c>
       <c r="S35" t="n">
-        <v>1293.91</v>
+        <v>39305.41</v>
       </c>
       <c r="T35" t="n">
-        <v>1661.21</v>
+        <v>42797.64</v>
       </c>
       <c r="U35" t="n">
-        <v>1886.05</v>
+        <v>49497.33</v>
       </c>
       <c r="V35" t="n">
-        <v>2522.65</v>
+        <v>55825.7</v>
       </c>
       <c r="W35" t="n">
-        <v>2888.28</v>
+        <v>57075.08</v>
       </c>
       <c r="X35" t="n">
-        <v>2651.82</v>
+        <v>58692.15</v>
       </c>
       <c r="Y35" t="n">
-        <v>2963.43</v>
+        <v>63179.6</v>
       </c>
     </row>
     <row r="36">
@@ -63202,73 +63216,73 @@
         <v>73</v>
       </c>
       <c r="C36" t="n">
-        <v>18348.36</v>
+        <v>200785.54</v>
       </c>
       <c r="D36" t="n">
-        <v>20105.6</v>
+        <v>199146.38</v>
       </c>
       <c r="E36" t="n">
-        <v>22130.06</v>
+        <v>201261.54</v>
       </c>
       <c r="F36" t="n">
-        <v>24025.44</v>
+        <v>210146.48</v>
       </c>
       <c r="G36" t="n">
-        <v>24793</v>
+        <v>218471.07</v>
       </c>
       <c r="H36" t="n">
-        <v>25798.83</v>
+        <v>217190.65</v>
       </c>
       <c r="I36" t="n">
-        <v>29377.49</v>
+        <v>230971.21</v>
       </c>
       <c r="J36" t="n">
-        <v>31336.11</v>
+        <v>270004.54</v>
       </c>
       <c r="K36" t="n">
-        <v>34179.17</v>
+        <v>329865.39</v>
       </c>
       <c r="L36" t="n">
-        <v>36614.24</v>
+        <v>399590.54</v>
       </c>
       <c r="M36" t="n">
-        <v>36879.24</v>
+        <v>440120.6</v>
       </c>
       <c r="N36" t="n">
-        <v>38623.3</v>
+        <v>500636.9</v>
       </c>
       <c r="O36" t="n">
-        <v>39502.02</v>
+        <v>575683.55</v>
       </c>
       <c r="P36" t="n">
-        <v>39183.9</v>
+        <v>624135.79</v>
       </c>
       <c r="Q36" t="n">
-        <v>38984.2</v>
+        <v>669869.02</v>
       </c>
       <c r="R36" t="n">
-        <v>40149.7</v>
+        <v>765036.69</v>
       </c>
       <c r="S36" t="n">
-        <v>39305.41</v>
+        <v>875964.3</v>
       </c>
       <c r="T36" t="n">
-        <v>42797.64</v>
+        <v>999330.85</v>
       </c>
       <c r="U36" t="n">
-        <v>49497.33</v>
+        <v>1182414.52</v>
       </c>
       <c r="V36" t="n">
-        <v>55825.7</v>
+        <v>1472214.95</v>
       </c>
       <c r="W36" t="n">
-        <v>57075.08</v>
+        <v>1596992.46</v>
       </c>
       <c r="X36" t="n">
-        <v>58692.15</v>
+        <v>1826084.3</v>
       </c>
       <c r="Y36" t="n">
-        <v>63179.6</v>
+        <v>2043849.07</v>
       </c>
     </row>
     <row r="37">
@@ -63279,73 +63293,73 @@
         <v>75</v>
       </c>
       <c r="C37" t="n">
-        <v>200785.54</v>
+        <v>29840.47</v>
       </c>
       <c r="D37" t="n">
-        <v>199146.38</v>
+        <v>30974.59</v>
       </c>
       <c r="E37" t="n">
-        <v>201261.54</v>
+        <v>33631.94</v>
       </c>
       <c r="F37" t="n">
-        <v>210146.48</v>
+        <v>38632.1</v>
       </c>
       <c r="G37" t="n">
-        <v>218471.07</v>
+        <v>41777.61</v>
       </c>
       <c r="H37" t="n">
-        <v>217190.65</v>
+        <v>47419.45</v>
       </c>
       <c r="I37" t="n">
-        <v>230971.21</v>
+        <v>54658.28</v>
       </c>
       <c r="J37" t="n">
-        <v>270004.54</v>
+        <v>59030.93</v>
       </c>
       <c r="K37" t="n">
-        <v>329865.39</v>
+        <v>59740.83</v>
       </c>
       <c r="L37" t="n">
-        <v>399590.54</v>
+        <v>61396.27</v>
       </c>
       <c r="M37" t="n">
-        <v>440120.6</v>
+        <v>58968</v>
       </c>
       <c r="N37" t="n">
-        <v>500636.9</v>
+        <v>62480.48</v>
       </c>
       <c r="O37" t="n">
-        <v>575683.55</v>
+        <v>64879.91</v>
       </c>
       <c r="P37" t="n">
-        <v>624135.79</v>
+        <v>67276.9</v>
       </c>
       <c r="Q37" t="n">
-        <v>669869.02</v>
+        <v>67260.06</v>
       </c>
       <c r="R37" t="n">
-        <v>765036.69</v>
+        <v>68544.12</v>
       </c>
       <c r="S37" t="n">
-        <v>875964.3</v>
+        <v>80418.87</v>
       </c>
       <c r="T37" t="n">
-        <v>999330.85</v>
+        <v>85211.45</v>
       </c>
       <c r="U37" t="n">
-        <v>1182414.52</v>
+        <v>83861.16</v>
       </c>
       <c r="V37" t="n">
-        <v>1472214.95</v>
+        <v>94475.89</v>
       </c>
       <c r="W37" t="n">
-        <v>1596992.46</v>
+        <v>97805.9</v>
       </c>
       <c r="X37" t="n">
-        <v>1826084.3</v>
+        <v>101622.52</v>
       </c>
       <c r="Y37" t="n">
-        <v>2043849.07</v>
+        <v>104498.67</v>
       </c>
     </row>
     <row r="38">
@@ -63356,73 +63370,73 @@
         <v>77</v>
       </c>
       <c r="C38" t="n">
-        <v>29840.47</v>
+        <v>134.22</v>
       </c>
       <c r="D38" t="n">
-        <v>30974.59</v>
+        <v>126.64</v>
       </c>
       <c r="E38" t="n">
-        <v>33631.94</v>
+        <v>142.32</v>
       </c>
       <c r="F38" t="n">
-        <v>38632.1</v>
+        <v>128.88</v>
       </c>
       <c r="G38" t="n">
-        <v>41777.61</v>
+        <v>156.73</v>
       </c>
       <c r="H38" t="n">
-        <v>47419.45</v>
+        <v>135.11</v>
       </c>
       <c r="I38" t="n">
-        <v>54658.28</v>
+        <v>111.9</v>
       </c>
       <c r="J38" t="n">
-        <v>59030.93</v>
+        <v>109.76</v>
       </c>
       <c r="K38" t="n">
-        <v>59740.83</v>
+        <v>108.15</v>
       </c>
       <c r="L38" t="n">
-        <v>61396.27</v>
+        <v>87.12</v>
       </c>
       <c r="M38" t="n">
-        <v>58968</v>
+        <v>75.59</v>
       </c>
       <c r="N38" t="n">
-        <v>62480.48</v>
+        <v>105.05</v>
       </c>
       <c r="O38" t="n">
-        <v>64879.91</v>
+        <v>118</v>
       </c>
       <c r="P38" t="n">
-        <v>67276.9</v>
+        <v>108.14</v>
       </c>
       <c r="Q38" t="n">
-        <v>67260.06</v>
+        <v>100</v>
       </c>
       <c r="R38" t="n">
-        <v>68544.12</v>
+        <v>103.97</v>
       </c>
       <c r="S38" t="n">
-        <v>80418.87</v>
+        <v>112.01</v>
       </c>
       <c r="T38" t="n">
-        <v>85211.45</v>
+        <v>120.51</v>
       </c>
       <c r="U38" t="n">
-        <v>83861.16</v>
+        <v>136.11</v>
       </c>
       <c r="V38" t="n">
-        <v>94475.89</v>
+        <v>108.41</v>
       </c>
       <c r="W38" t="n">
-        <v>97805.9</v>
+        <v>108.76</v>
       </c>
       <c r="X38" t="n">
-        <v>101622.52</v>
+        <v>125.67</v>
       </c>
       <c r="Y38" t="n">
-        <v>104498.67</v>
+        <v>145.95</v>
       </c>
     </row>
     <row r="39">
@@ -63433,73 +63447,73 @@
         <v>79</v>
       </c>
       <c r="C39" t="n">
-        <v>134.22</v>
+        <v>2222.84</v>
       </c>
       <c r="D39" t="n">
-        <v>126.64</v>
+        <v>2731.12</v>
       </c>
       <c r="E39" t="n">
-        <v>142.32</v>
+        <v>2705.23</v>
       </c>
       <c r="F39" t="n">
-        <v>128.88</v>
+        <v>2686.4</v>
       </c>
       <c r="G39" t="n">
-        <v>156.73</v>
+        <v>2479.77</v>
       </c>
       <c r="H39" t="n">
-        <v>135.11</v>
+        <v>2300.72</v>
       </c>
       <c r="I39" t="n">
-        <v>111.9</v>
+        <v>1316.55</v>
       </c>
       <c r="J39" t="n">
-        <v>109.76</v>
+        <v>1871.46</v>
       </c>
       <c r="K39" t="n">
-        <v>108.15</v>
+        <v>2286.11</v>
       </c>
       <c r="L39" t="n">
-        <v>87.12</v>
+        <v>2428.72</v>
       </c>
       <c r="M39" t="n">
-        <v>75.59</v>
+        <v>2060.15</v>
       </c>
       <c r="N39" t="n">
-        <v>105.05</v>
+        <v>2057.59</v>
       </c>
       <c r="O39" t="n">
-        <v>118</v>
+        <v>2431.67</v>
       </c>
       <c r="P39" t="n">
-        <v>108.14</v>
+        <v>2639.02</v>
       </c>
       <c r="Q39" t="n">
-        <v>100</v>
+        <v>2435.49</v>
       </c>
       <c r="R39" t="n">
-        <v>103.97</v>
+        <v>2370.97</v>
       </c>
       <c r="S39" t="n">
-        <v>112.01</v>
+        <v>2858.99</v>
       </c>
       <c r="T39" t="n">
-        <v>120.51</v>
+        <v>3083.96</v>
       </c>
       <c r="U39" t="n">
-        <v>136.11</v>
+        <v>2575.83</v>
       </c>
       <c r="V39" t="n">
-        <v>108.41</v>
+        <v>2884.92</v>
       </c>
       <c r="W39" t="n">
-        <v>108.76</v>
+        <v>2729.79</v>
       </c>
       <c r="X39" t="n">
-        <v>125.67</v>
+        <v>3430.22</v>
       </c>
       <c r="Y39" t="n">
-        <v>145.95</v>
+        <v>4950.34</v>
       </c>
     </row>
     <row r="40">
@@ -63509,74 +63523,54 @@
       <c r="B40" t="s">
         <v>81</v>
       </c>
-      <c r="C40" t="n">
-        <v>2222.84</v>
-      </c>
-      <c r="D40" t="n">
-        <v>2731.12</v>
-      </c>
-      <c r="E40" t="n">
-        <v>2705.23</v>
-      </c>
-      <c r="F40" t="n">
-        <v>2686.4</v>
-      </c>
-      <c r="G40" t="n">
-        <v>2479.77</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2300.72</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1316.55</v>
-      </c>
-      <c r="J40" t="n">
-        <v>1871.46</v>
-      </c>
-      <c r="K40" t="n">
-        <v>2286.11</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2428.72</v>
-      </c>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
       <c r="M40" t="n">
-        <v>2060.15</v>
+        <v>4284.31</v>
       </c>
       <c r="N40" t="n">
-        <v>2057.59</v>
+        <v>4588.33</v>
       </c>
       <c r="O40" t="n">
-        <v>2431.67</v>
+        <v>5122.4</v>
       </c>
       <c r="P40" t="n">
-        <v>2639.02</v>
+        <v>5170.77</v>
       </c>
       <c r="Q40" t="n">
-        <v>2435.49</v>
+        <v>5297.31</v>
       </c>
       <c r="R40" t="n">
-        <v>2370.97</v>
+        <v>5486.52</v>
       </c>
       <c r="S40" t="n">
-        <v>2858.99</v>
+        <v>5615.83</v>
       </c>
       <c r="T40" t="n">
-        <v>3083.96</v>
+        <v>5866.81</v>
       </c>
       <c r="U40" t="n">
-        <v>2575.83</v>
+        <v>6419.04</v>
       </c>
       <c r="V40" t="n">
-        <v>2884.92</v>
+        <v>6936.56</v>
       </c>
       <c r="W40" t="n">
-        <v>2729.79</v>
+        <v>7838.94</v>
       </c>
       <c r="X40" t="n">
-        <v>3430.22</v>
+        <v>7787.22</v>
       </c>
       <c r="Y40" t="n">
-        <v>4950.34</v>
+        <v>8307.26</v>
       </c>
     </row>
     <row r="41">
@@ -63593,47 +63587,53 @@
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41"/>
-      <c r="J41"/>
-      <c r="K41"/>
-      <c r="L41"/>
+      <c r="J41" t="n">
+        <v>4589.46</v>
+      </c>
+      <c r="K41" t="n">
+        <v>4595.98</v>
+      </c>
+      <c r="L41" t="n">
+        <v>4365.6</v>
+      </c>
       <c r="M41" t="n">
-        <v>4284.31</v>
+        <v>3878.25</v>
       </c>
       <c r="N41" t="n">
-        <v>4588.33</v>
+        <v>3554.7</v>
       </c>
       <c r="O41" t="n">
-        <v>5122.4</v>
+        <v>3682.93</v>
       </c>
       <c r="P41" t="n">
-        <v>5170.77</v>
+        <v>4001.21</v>
       </c>
       <c r="Q41" t="n">
-        <v>5297.31</v>
+        <v>4157.52</v>
       </c>
       <c r="R41" t="n">
-        <v>5486.52</v>
+        <v>4163.62</v>
       </c>
       <c r="S41" t="n">
-        <v>5615.83</v>
+        <v>4356.46</v>
       </c>
       <c r="T41" t="n">
-        <v>5866.81</v>
+        <v>4385.08</v>
       </c>
       <c r="U41" t="n">
-        <v>6419.04</v>
+        <v>4660.72</v>
       </c>
       <c r="V41" t="n">
-        <v>6936.56</v>
+        <v>4477.43</v>
       </c>
       <c r="W41" t="n">
-        <v>7838.94</v>
+        <v>5058.36</v>
       </c>
       <c r="X41" t="n">
-        <v>7787.22</v>
+        <v>5091.9</v>
       </c>
       <c r="Y41" t="n">
-        <v>8307.26</v>
+        <v>5711.2</v>
       </c>
     </row>
     <row r="42">
@@ -72919,60 +72919,74 @@
       <c r="B180" t="s">
         <v>361</v>
       </c>
-      <c r="C180"/>
-      <c r="D180"/>
-      <c r="E180"/>
-      <c r="F180"/>
-      <c r="G180"/>
-      <c r="H180"/>
-      <c r="I180"/>
+      <c r="C180" t="n">
+        <v>604070.85</v>
+      </c>
+      <c r="D180" t="n">
+        <v>614924.78</v>
+      </c>
+      <c r="E180" t="n">
+        <v>653550.71</v>
+      </c>
+      <c r="F180" t="n">
+        <v>674891.85</v>
+      </c>
+      <c r="G180" t="n">
+        <v>700081.02</v>
+      </c>
+      <c r="H180" t="n">
+        <v>716719.01</v>
+      </c>
+      <c r="I180" t="n">
+        <v>705193.61</v>
+      </c>
       <c r="J180" t="n">
-        <v>44660.45</v>
+        <v>708348.85</v>
       </c>
       <c r="K180" t="n">
-        <v>39840.28</v>
+        <v>714555.91</v>
       </c>
       <c r="L180" t="n">
-        <v>27712.57</v>
+        <v>721737.93</v>
       </c>
       <c r="M180" t="n">
-        <v>40277.45</v>
+        <v>708311.46</v>
       </c>
       <c r="N180" t="n">
-        <v>43822.33</v>
+        <v>786663.23</v>
       </c>
       <c r="O180" t="n">
-        <v>47740.21</v>
+        <v>829103.18</v>
       </c>
       <c r="P180" t="n">
-        <v>53683.49</v>
+        <v>881987.89</v>
       </c>
       <c r="Q180" t="n">
-        <v>64325.59</v>
+        <v>923376.96</v>
       </c>
       <c r="R180" t="n">
-        <v>70352.24</v>
+        <v>963614.05</v>
       </c>
       <c r="S180" t="n">
-        <v>76406.45</v>
+        <v>993703.84</v>
       </c>
       <c r="T180" t="n">
-        <v>80795.58</v>
+        <v>1020892</v>
       </c>
       <c r="U180" t="n">
-        <v>89460.61</v>
+        <v>1079165.63</v>
       </c>
       <c r="V180" t="n">
-        <v>78021.78</v>
+        <v>1128701.88</v>
       </c>
       <c r="W180" t="n">
-        <v>81973.43</v>
+        <v>1131189.21</v>
       </c>
       <c r="X180" t="n">
-        <v>80288.7</v>
+        <v>1108485.11</v>
       </c>
       <c r="Y180" t="n">
-        <v>86360.44</v>
+        <v>1112236.34</v>
       </c>
     </row>
     <row r="181">
@@ -72982,74 +72996,60 @@
       <c r="B181" t="s">
         <v>363</v>
       </c>
-      <c r="C181" t="n">
-        <v>604070.85</v>
-      </c>
-      <c r="D181" t="n">
-        <v>614924.78</v>
-      </c>
-      <c r="E181" t="n">
-        <v>653550.71</v>
-      </c>
-      <c r="F181" t="n">
-        <v>674891.85</v>
-      </c>
-      <c r="G181" t="n">
-        <v>700081.02</v>
-      </c>
-      <c r="H181" t="n">
-        <v>716719.01</v>
-      </c>
-      <c r="I181" t="n">
-        <v>705193.61</v>
-      </c>
+      <c r="C181"/>
+      <c r="D181"/>
+      <c r="E181"/>
+      <c r="F181"/>
+      <c r="G181"/>
+      <c r="H181"/>
+      <c r="I181"/>
       <c r="J181" t="n">
-        <v>708348.85</v>
+        <v>44660.45</v>
       </c>
       <c r="K181" t="n">
-        <v>714555.91</v>
+        <v>39840.28</v>
       </c>
       <c r="L181" t="n">
-        <v>721737.93</v>
+        <v>27712.57</v>
       </c>
       <c r="M181" t="n">
-        <v>708311.46</v>
+        <v>40277.45</v>
       </c>
       <c r="N181" t="n">
-        <v>786663.23</v>
+        <v>43822.33</v>
       </c>
       <c r="O181" t="n">
-        <v>829103.18</v>
+        <v>47740.21</v>
       </c>
       <c r="P181" t="n">
-        <v>881987.89</v>
+        <v>53683.49</v>
       </c>
       <c r="Q181" t="n">
-        <v>923376.96</v>
+        <v>64325.59</v>
       </c>
       <c r="R181" t="n">
-        <v>963614.05</v>
+        <v>70352.24</v>
       </c>
       <c r="S181" t="n">
-        <v>993703.84</v>
+        <v>76406.45</v>
       </c>
       <c r="T181" t="n">
-        <v>1020892</v>
+        <v>80795.58</v>
       </c>
       <c r="U181" t="n">
-        <v>1079165.63</v>
+        <v>89460.61</v>
       </c>
       <c r="V181" t="n">
-        <v>1128701.88</v>
+        <v>78021.78</v>
       </c>
       <c r="W181" t="n">
-        <v>1131189.21</v>
+        <v>81973.43</v>
       </c>
       <c r="X181" t="n">
-        <v>1108485.11</v>
+        <v>80288.7</v>
       </c>
       <c r="Y181" t="n">
-        <v>1112236.34</v>
+        <v>86360.44</v>
       </c>
     </row>
     <row r="182">
